--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9902384580471915</v>
+        <v>0.9902384580471923</v>
       </c>
       <c r="D2">
         <v>1.010939933368487</v>
       </c>
       <c r="E2">
-        <v>0.9995055721958394</v>
+        <v>0.9995055721958402</v>
       </c>
       <c r="F2">
-        <v>1.009460790732267</v>
+        <v>1.009460790732269</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04254603138146</v>
+        <v>1.042546031381461</v>
       </c>
       <c r="J2">
         <v>1.012715107436486</v>
       </c>
       <c r="K2">
-        <v>1.022248932811551</v>
+        <v>1.022248932811552</v>
       </c>
       <c r="L2">
-        <v>1.01097179948331</v>
+        <v>1.010971799483311</v>
       </c>
       <c r="M2">
-        <v>1.020789876625944</v>
+        <v>1.020789876625945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9981325491186174</v>
+        <v>0.9981325491186176</v>
       </c>
       <c r="D3">
         <v>1.016871210271834</v>
@@ -477,10 +477,10 @@
         <v>1.04525921660442</v>
       </c>
       <c r="J3">
-        <v>1.018674252511996</v>
+        <v>1.018674252511995</v>
       </c>
       <c r="K3">
-        <v>1.027292677560695</v>
+        <v>1.027292677560694</v>
       </c>
       <c r="L3">
         <v>1.016740420858068</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003077040401053</v>
+        <v>1.003077040401055</v>
       </c>
       <c r="D4">
-        <v>1.020588358181189</v>
+        <v>1.020588358181191</v>
       </c>
       <c r="E4">
-        <v>1.010376375529628</v>
+        <v>1.01037637552963</v>
       </c>
       <c r="F4">
-        <v>1.021371968562215</v>
+        <v>1.021371968562217</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046943205404652</v>
+        <v>1.046943205404653</v>
       </c>
       <c r="J4">
-        <v>1.022402361344345</v>
+        <v>1.022402361344346</v>
       </c>
       <c r="K4">
-        <v>1.030444491274455</v>
+        <v>1.030444491274457</v>
       </c>
       <c r="L4">
-        <v>1.020351159406342</v>
+        <v>1.020351159406344</v>
       </c>
       <c r="M4">
-        <v>1.031219118049235</v>
+        <v>1.031219118049237</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005118891441491</v>
+        <v>1.005118891441495</v>
       </c>
       <c r="D5">
-        <v>1.02212373487185</v>
+        <v>1.022123734871853</v>
       </c>
       <c r="E5">
-        <v>1.012108090473028</v>
+        <v>1.012108090473032</v>
       </c>
       <c r="F5">
-        <v>1.023270088482135</v>
+        <v>1.023270088482138</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047634836590255</v>
+        <v>1.047634836590256</v>
       </c>
       <c r="J5">
-        <v>1.023940762910803</v>
+        <v>1.023940762910806</v>
       </c>
       <c r="K5">
-        <v>1.031744186323105</v>
+        <v>1.031744186323108</v>
       </c>
       <c r="L5">
-        <v>1.021841553546</v>
+        <v>1.021841553546003</v>
       </c>
       <c r="M5">
-        <v>1.032877778631107</v>
+        <v>1.03287777863111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005459632376655</v>
+        <v>1.005459632376654</v>
       </c>
       <c r="D6">
-        <v>1.022379973774964</v>
+        <v>1.022379973774963</v>
       </c>
       <c r="E6">
-        <v>1.012397150733019</v>
+        <v>1.012397150733017</v>
       </c>
       <c r="F6">
-        <v>1.023586944625538</v>
+        <v>1.023586944625537</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047750030367616</v>
       </c>
       <c r="J6">
-        <v>1.024197419851912</v>
+        <v>1.024197419851911</v>
       </c>
       <c r="K6">
-        <v>1.031960965230967</v>
+        <v>1.031960965230966</v>
       </c>
       <c r="L6">
-        <v>1.022090225931324</v>
+        <v>1.022090225931322</v>
       </c>
       <c r="M6">
-        <v>1.03315456678158</v>
+        <v>1.033154566781578</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003104465438183</v>
+        <v>1.003104465438182</v>
       </c>
       <c r="D7">
         <v>1.020608979262564</v>
       </c>
       <c r="E7">
-        <v>1.010399629916922</v>
+        <v>1.010399629916921</v>
       </c>
       <c r="F7">
         <v>1.021397456223515</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046952510090007</v>
+        <v>1.046952510090006</v>
       </c>
       <c r="J7">
-        <v>1.02242302892815</v>
+        <v>1.022423028928149</v>
       </c>
       <c r="K7">
         <v>1.030461955568613</v>
@@ -638,7 +638,7 @@
         <v>1.020371180366898</v>
       </c>
       <c r="M7">
-        <v>1.031241396656037</v>
+        <v>1.031241396656036</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.992941633405646</v>
+        <v>0.9929416334056463</v>
       </c>
       <c r="D8">
         <v>1.012970457674909</v>
@@ -658,7 +658,7 @@
         <v>1.001791858970494</v>
       </c>
       <c r="F8">
-        <v>1.011965310176119</v>
+        <v>1.01196531017612</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.014756584094963</v>
       </c>
       <c r="K8">
-        <v>1.023977556022539</v>
+        <v>1.02397755602254</v>
       </c>
       <c r="L8">
         <v>1.012947612972393</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973663596498716</v>
+        <v>0.973663596498717</v>
       </c>
       <c r="D9">
-        <v>0.9985047914184105</v>
+        <v>0.9985047914184115</v>
       </c>
       <c r="E9">
-        <v>0.9855177756513666</v>
+        <v>0.9855177756513674</v>
       </c>
       <c r="F9">
-        <v>0.99414368494528</v>
+        <v>0.9941436849452806</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036766122912292</v>
       </c>
       <c r="J9">
-        <v>1.000181911564717</v>
+        <v>1.000181911564718</v>
       </c>
       <c r="K9">
-        <v>1.011622174009103</v>
+        <v>1.011622174009104</v>
       </c>
       <c r="L9">
-        <v>0.998850269775465</v>
+        <v>0.998850269775466</v>
       </c>
       <c r="M9">
-        <v>1.007332496784073</v>
+        <v>1.007332496784074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9597025909632491</v>
+        <v>0.9597025909632474</v>
       </c>
       <c r="D10">
-        <v>0.9880565516689325</v>
+        <v>0.988056551668931</v>
       </c>
       <c r="E10">
-        <v>0.9737785112901367</v>
+        <v>0.9737785112901353</v>
       </c>
       <c r="F10">
-        <v>0.9812956439425184</v>
+        <v>0.9812956439425173</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031828034706711</v>
+        <v>1.03182803470671</v>
       </c>
       <c r="J10">
-        <v>0.9896115671700162</v>
+        <v>0.9896115671700149</v>
       </c>
       <c r="K10">
-        <v>1.002644849900684</v>
+        <v>1.002644849900683</v>
       </c>
       <c r="L10">
-        <v>0.9886379112154863</v>
+        <v>0.9886379112154848</v>
       </c>
       <c r="M10">
-        <v>0.9960110279877064</v>
+        <v>0.9960110279877054</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9533438159229749</v>
+        <v>0.9533438159229768</v>
       </c>
       <c r="D11">
-        <v>0.9833072718855613</v>
+        <v>0.9833072718855631</v>
       </c>
       <c r="E11">
-        <v>0.9684451399644939</v>
+        <v>0.9684451399644955</v>
       </c>
       <c r="F11">
-        <v>0.9754603440534813</v>
+        <v>0.9754603440534831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029562145643681</v>
+        <v>1.029562145643682</v>
       </c>
       <c r="J11">
-        <v>0.9847951408837363</v>
+        <v>0.9847951408837381</v>
       </c>
       <c r="K11">
-        <v>0.9985510072131347</v>
+        <v>0.9985510072131362</v>
       </c>
       <c r="L11">
-        <v>0.9839877211117489</v>
+        <v>0.9839877211117508</v>
       </c>
       <c r="M11">
-        <v>0.9908603706892017</v>
+        <v>0.9908603706892037</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9509296829929184</v>
+        <v>0.9509296829929162</v>
       </c>
       <c r="D12">
-        <v>0.9815059151959873</v>
+        <v>0.9815059151959855</v>
       </c>
       <c r="E12">
-        <v>0.9664225736626501</v>
+        <v>0.9664225736626481</v>
       </c>
       <c r="F12">
-        <v>0.9732477074023714</v>
+        <v>0.9732477074023699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028699530192408</v>
+        <v>1.028699530192407</v>
       </c>
       <c r="J12">
-        <v>0.9829664353708883</v>
+        <v>0.9829664353708865</v>
       </c>
       <c r="K12">
-        <v>0.9969962219752397</v>
+        <v>0.9969962219752379</v>
       </c>
       <c r="L12">
-        <v>0.9822226324204635</v>
+        <v>0.9822226324204616</v>
       </c>
       <c r="M12">
-        <v>0.9889060355745147</v>
+        <v>0.988906035574513</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9514499751615983</v>
+        <v>0.9514499751615975</v>
       </c>
       <c r="D13">
-        <v>0.9818940593843034</v>
+        <v>0.9818940593843025</v>
       </c>
       <c r="E13">
-        <v>0.9668583690977771</v>
+        <v>0.9668583690977761</v>
       </c>
       <c r="F13">
-        <v>0.973724444152074</v>
+        <v>0.9737244441520733</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028885544309642</v>
+        <v>1.028885544309641</v>
       </c>
       <c r="J13">
-        <v>0.9833605596458617</v>
+        <v>0.9833605596458608</v>
       </c>
       <c r="K13">
-        <v>0.9973313290673997</v>
+        <v>0.997331329067399</v>
       </c>
       <c r="L13">
-        <v>0.9826030228232576</v>
+        <v>0.9826030228232566</v>
       </c>
       <c r="M13">
-        <v>0.9893271771194052</v>
+        <v>0.9893271771194044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9531453600347783</v>
+        <v>0.953145360034779</v>
       </c>
       <c r="D14">
-        <v>0.9831591530466744</v>
+        <v>0.9831591530466752</v>
       </c>
       <c r="E14">
-        <v>0.9682788256862763</v>
+        <v>0.968278825686277</v>
       </c>
       <c r="F14">
-        <v>0.9752783948134089</v>
+        <v>0.9752783948134095</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029491280484973</v>
+        <v>1.029491280484974</v>
       </c>
       <c r="J14">
-        <v>0.9846448121806674</v>
+        <v>0.984644812180668</v>
       </c>
       <c r="K14">
-        <v>0.9984232044677747</v>
+        <v>0.9984232044677753</v>
       </c>
       <c r="L14">
-        <v>0.9838426116995667</v>
+        <v>0.9838426116995673</v>
       </c>
       <c r="M14">
-        <v>0.9906996884310613</v>
+        <v>0.9906996884310617</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9541828600447604</v>
+        <v>0.9541828600447595</v>
       </c>
       <c r="D15">
-        <v>0.9839335697562802</v>
+        <v>0.9839335697562791</v>
       </c>
       <c r="E15">
-        <v>0.9691483873893958</v>
+        <v>0.9691483873893945</v>
       </c>
       <c r="F15">
-        <v>0.9762297139417658</v>
+        <v>0.9762297139417647</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029861658852352</v>
+        <v>1.029861658852351</v>
       </c>
       <c r="J15">
-        <v>0.9854307056323799</v>
+        <v>0.9854307056323789</v>
       </c>
       <c r="K15">
-        <v>0.9990913188553832</v>
+        <v>0.9990913188553822</v>
       </c>
       <c r="L15">
-        <v>0.9846012400649734</v>
+        <v>0.9846012400649723</v>
       </c>
       <c r="M15">
-        <v>0.9915397605777475</v>
+        <v>0.9915397605777463</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9601175780630815</v>
+        <v>0.9601175780630835</v>
       </c>
       <c r="D16">
-        <v>0.9883667202715861</v>
+        <v>0.9883667202715873</v>
       </c>
       <c r="E16">
-        <v>0.974126876152335</v>
+        <v>0.9741268761523371</v>
       </c>
       <c r="F16">
-        <v>0.9816768313785299</v>
+        <v>0.9816768313785316</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.031975578208638</v>
       </c>
       <c r="J16">
-        <v>0.9899258698670131</v>
+        <v>0.989925869867015</v>
       </c>
       <c r="K16">
-        <v>1.002911936684021</v>
+        <v>1.002911936684023</v>
       </c>
       <c r="L16">
-        <v>0.9889414328268862</v>
+        <v>0.9889414328268883</v>
       </c>
       <c r="M16">
-        <v>0.9963473122662593</v>
+        <v>0.9963473122662609</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9637529571692335</v>
+        <v>0.9637529571692331</v>
       </c>
       <c r="D17">
-        <v>0.9910849704777434</v>
+        <v>0.9910849704777427</v>
       </c>
       <c r="E17">
-        <v>0.9771801704578648</v>
+        <v>0.9771801704578639</v>
       </c>
       <c r="F17">
-        <v>0.9850180078414545</v>
+        <v>0.985018007841454</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033266224903822</v>
       </c>
       <c r="J17">
-        <v>0.9926790257727849</v>
+        <v>0.9926790257727846</v>
       </c>
       <c r="K17">
-        <v>1.005251139172569</v>
+        <v>1.005251139172568</v>
       </c>
       <c r="L17">
-        <v>0.9916005049164742</v>
+        <v>0.9916005049164738</v>
       </c>
       <c r="M17">
-        <v>0.999293926002609</v>
+        <v>0.9992939260026086</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.965843539059141</v>
+        <v>0.9658435390591402</v>
       </c>
       <c r="D18">
-        <v>0.9926490159021014</v>
+        <v>0.992649015902101</v>
       </c>
       <c r="E18">
-        <v>0.9789372590401972</v>
+        <v>0.9789372590401971</v>
       </c>
       <c r="F18">
-        <v>0.986940934172281</v>
+        <v>0.9869409341722807</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.034006852841252</v>
       </c>
       <c r="J18">
-        <v>0.9942620737777741</v>
+        <v>0.9942620737777734</v>
       </c>
       <c r="K18">
         <v>1.006595854895225</v>
       </c>
       <c r="L18">
-        <v>0.993129744796399</v>
+        <v>0.9931297447963988</v>
       </c>
       <c r="M18">
         <v>1.000988956925553</v>
@@ -1073,7 +1073,7 @@
         <v>0.9931787708136424</v>
       </c>
       <c r="E19">
-        <v>0.9795324461584133</v>
+        <v>0.9795324461584132</v>
       </c>
       <c r="F19">
         <v>0.9875923249648781</v>
@@ -1085,13 +1085,13 @@
         <v>1.034257371147557</v>
       </c>
       <c r="J19">
-        <v>0.9947980851354951</v>
+        <v>0.9947980851354949</v>
       </c>
       <c r="K19">
         <v>1.007051113680228</v>
       </c>
       <c r="L19">
-        <v>0.9936475852698741</v>
+        <v>0.9936475852698738</v>
       </c>
       <c r="M19">
         <v>1.001563009813326</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633660396925431</v>
+        <v>0.9633660396925428</v>
       </c>
       <c r="D20">
-        <v>0.9907955713419716</v>
+        <v>0.9907955713419709</v>
       </c>
       <c r="E20">
-        <v>0.9768550739587019</v>
+        <v>0.976855073958701</v>
       </c>
       <c r="F20">
-        <v>0.9846622417503973</v>
+        <v>0.9846622417503966</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033129023083471</v>
       </c>
       <c r="J20">
-        <v>0.9923860237400244</v>
+        <v>0.9923860237400237</v>
       </c>
       <c r="K20">
-        <v>1.005002223732308</v>
+        <v>1.005002223732307</v>
       </c>
       <c r="L20">
-        <v>0.9913174853479952</v>
+        <v>0.9913174853479949</v>
       </c>
       <c r="M20">
-        <v>0.9989802573970307</v>
+        <v>0.9989802573970301</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9526475972302327</v>
+        <v>0.9526475972302341</v>
       </c>
       <c r="D21">
-        <v>0.9827876733250115</v>
+        <v>0.9827876733250125</v>
       </c>
       <c r="E21">
-        <v>0.9678617171089005</v>
+        <v>0.9678617171089019</v>
       </c>
       <c r="F21">
-        <v>0.974822078907706</v>
+        <v>0.974822078907707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029313500622047</v>
+        <v>1.029313500622048</v>
       </c>
       <c r="J21">
-        <v>0.9842677594511736</v>
+        <v>0.9842677594511751</v>
       </c>
       <c r="K21">
-        <v>0.9981026443874066</v>
+        <v>0.9981026443874074</v>
       </c>
       <c r="L21">
-        <v>0.9834786580864755</v>
+        <v>0.9834786580864766</v>
       </c>
       <c r="M21">
-        <v>0.990296687707369</v>
+        <v>0.9902966877073703</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9456033459194426</v>
+        <v>0.9456033459194428</v>
       </c>
       <c r="D22">
-        <v>0.9775351000318945</v>
+        <v>0.9775351000318946</v>
       </c>
       <c r="E22">
-        <v>0.9619646471298131</v>
+        <v>0.9619646471298133</v>
       </c>
       <c r="F22">
         <v>0.9683713617160753</v>
@@ -1199,16 +1199,16 @@
         <v>1.026792154501671</v>
       </c>
       <c r="J22">
-        <v>0.9789316991393189</v>
+        <v>0.9789316991393191</v>
       </c>
       <c r="K22">
-        <v>0.99356512513151</v>
+        <v>0.9935651251315101</v>
       </c>
       <c r="L22">
-        <v>0.9783292195827501</v>
+        <v>0.9783292195827502</v>
       </c>
       <c r="M22">
-        <v>0.9845965510430954</v>
+        <v>0.9845965510430957</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493684733545791</v>
+        <v>0.9493684733545794</v>
       </c>
       <c r="D23">
-        <v>0.9803415115954863</v>
+        <v>0.9803415115954865</v>
       </c>
       <c r="E23">
-        <v>0.9651152615200559</v>
+        <v>0.9651152615200558</v>
       </c>
       <c r="F23">
-        <v>0.9718176190047818</v>
+        <v>0.9718176190047814</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028141035482478</v>
       </c>
       <c r="J23">
-        <v>0.9817838051275903</v>
+        <v>0.9817838051275906</v>
       </c>
       <c r="K23">
         <v>0.9959906238620936</v>
       </c>
       <c r="L23">
-        <v>0.9810812887887611</v>
+        <v>0.9810812887887612</v>
       </c>
       <c r="M23">
-        <v>0.9876425280114485</v>
+        <v>0.9876425280114484</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9635409629867563</v>
+        <v>0.9635409629867565</v>
       </c>
       <c r="D24">
-        <v>0.9909264044302021</v>
+        <v>0.9909264044302023</v>
       </c>
       <c r="E24">
-        <v>0.9770020444753311</v>
+        <v>0.9770020444753316</v>
       </c>
       <c r="F24">
-        <v>0.9848230769341922</v>
+        <v>0.9848230769341926</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033191056201957</v>
       </c>
       <c r="J24">
-        <v>0.992518488997335</v>
+        <v>0.9925184889973351</v>
       </c>
       <c r="K24">
         <v>1.005114758559023</v>
       </c>
       <c r="L24">
-        <v>0.9914454366682101</v>
+        <v>0.9914454366682105</v>
       </c>
       <c r="M24">
-        <v>0.9991220636301006</v>
+        <v>0.9991220636301008</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9788276485232761</v>
+        <v>0.9788276485232755</v>
       </c>
       <c r="D25">
-        <v>1.002375921341821</v>
+        <v>1.00237592134182</v>
       </c>
       <c r="E25">
-        <v>0.9898700294955104</v>
+        <v>0.9898700294955094</v>
       </c>
       <c r="F25">
-        <v>0.9989085287575744</v>
+        <v>0.9989085287575736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03857766603929</v>
+        <v>1.038577666039289</v>
       </c>
       <c r="J25">
-        <v>1.00408917653847</v>
+        <v>1.004089176538469</v>
       </c>
       <c r="K25">
-        <v>1.014937465818762</v>
+        <v>1.014937465818761</v>
       </c>
       <c r="L25">
         <v>1.002627662378022</v>
       </c>
       <c r="M25">
-        <v>1.011523812073552</v>
+        <v>1.011523812073551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9902384580471923</v>
+        <v>0.9902384580471915</v>
       </c>
       <c r="D2">
         <v>1.010939933368487</v>
       </c>
       <c r="E2">
-        <v>0.9995055721958402</v>
+        <v>0.9995055721958394</v>
       </c>
       <c r="F2">
-        <v>1.009460790732269</v>
+        <v>1.009460790732267</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042546031381461</v>
+        <v>1.04254603138146</v>
       </c>
       <c r="J2">
         <v>1.012715107436486</v>
       </c>
       <c r="K2">
-        <v>1.022248932811552</v>
+        <v>1.022248932811551</v>
       </c>
       <c r="L2">
-        <v>1.010971799483311</v>
+        <v>1.01097179948331</v>
       </c>
       <c r="M2">
-        <v>1.020789876625945</v>
+        <v>1.020789876625944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9981325491186176</v>
+        <v>0.9981325491186174</v>
       </c>
       <c r="D3">
         <v>1.016871210271834</v>
@@ -477,10 +477,10 @@
         <v>1.04525921660442</v>
       </c>
       <c r="J3">
-        <v>1.018674252511995</v>
+        <v>1.018674252511996</v>
       </c>
       <c r="K3">
-        <v>1.027292677560694</v>
+        <v>1.027292677560695</v>
       </c>
       <c r="L3">
         <v>1.016740420858068</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003077040401055</v>
+        <v>1.003077040401053</v>
       </c>
       <c r="D4">
-        <v>1.020588358181191</v>
+        <v>1.020588358181189</v>
       </c>
       <c r="E4">
-        <v>1.01037637552963</v>
+        <v>1.010376375529628</v>
       </c>
       <c r="F4">
-        <v>1.021371968562217</v>
+        <v>1.021371968562215</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046943205404653</v>
+        <v>1.046943205404652</v>
       </c>
       <c r="J4">
-        <v>1.022402361344346</v>
+        <v>1.022402361344345</v>
       </c>
       <c r="K4">
-        <v>1.030444491274457</v>
+        <v>1.030444491274455</v>
       </c>
       <c r="L4">
-        <v>1.020351159406344</v>
+        <v>1.020351159406342</v>
       </c>
       <c r="M4">
-        <v>1.031219118049237</v>
+        <v>1.031219118049235</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005118891441495</v>
+        <v>1.005118891441491</v>
       </c>
       <c r="D5">
-        <v>1.022123734871853</v>
+        <v>1.02212373487185</v>
       </c>
       <c r="E5">
-        <v>1.012108090473032</v>
+        <v>1.012108090473028</v>
       </c>
       <c r="F5">
-        <v>1.023270088482138</v>
+        <v>1.023270088482135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047634836590256</v>
+        <v>1.047634836590255</v>
       </c>
       <c r="J5">
-        <v>1.023940762910806</v>
+        <v>1.023940762910803</v>
       </c>
       <c r="K5">
-        <v>1.031744186323108</v>
+        <v>1.031744186323105</v>
       </c>
       <c r="L5">
-        <v>1.021841553546003</v>
+        <v>1.021841553546</v>
       </c>
       <c r="M5">
-        <v>1.03287777863111</v>
+        <v>1.032877778631107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005459632376654</v>
+        <v>1.005459632376655</v>
       </c>
       <c r="D6">
-        <v>1.022379973774963</v>
+        <v>1.022379973774964</v>
       </c>
       <c r="E6">
-        <v>1.012397150733017</v>
+        <v>1.012397150733019</v>
       </c>
       <c r="F6">
-        <v>1.023586944625537</v>
+        <v>1.023586944625538</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.047750030367616</v>
       </c>
       <c r="J6">
-        <v>1.024197419851911</v>
+        <v>1.024197419851912</v>
       </c>
       <c r="K6">
-        <v>1.031960965230966</v>
+        <v>1.031960965230967</v>
       </c>
       <c r="L6">
-        <v>1.022090225931322</v>
+        <v>1.022090225931324</v>
       </c>
       <c r="M6">
-        <v>1.033154566781578</v>
+        <v>1.03315456678158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003104465438182</v>
+        <v>1.003104465438183</v>
       </c>
       <c r="D7">
         <v>1.020608979262564</v>
       </c>
       <c r="E7">
-        <v>1.010399629916921</v>
+        <v>1.010399629916922</v>
       </c>
       <c r="F7">
         <v>1.021397456223515</v>
@@ -626,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046952510090006</v>
+        <v>1.046952510090007</v>
       </c>
       <c r="J7">
-        <v>1.022423028928149</v>
+        <v>1.02242302892815</v>
       </c>
       <c r="K7">
         <v>1.030461955568613</v>
@@ -638,7 +638,7 @@
         <v>1.020371180366898</v>
       </c>
       <c r="M7">
-        <v>1.031241396656036</v>
+        <v>1.031241396656037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929416334056463</v>
+        <v>0.992941633405646</v>
       </c>
       <c r="D8">
         <v>1.012970457674909</v>
@@ -658,7 +658,7 @@
         <v>1.001791858970494</v>
       </c>
       <c r="F8">
-        <v>1.01196531017612</v>
+        <v>1.011965310176119</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.014756584094963</v>
       </c>
       <c r="K8">
-        <v>1.02397755602254</v>
+        <v>1.023977556022539</v>
       </c>
       <c r="L8">
         <v>1.012947612972393</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973663596498717</v>
+        <v>0.973663596498716</v>
       </c>
       <c r="D9">
-        <v>0.9985047914184115</v>
+        <v>0.9985047914184105</v>
       </c>
       <c r="E9">
-        <v>0.9855177756513674</v>
+        <v>0.9855177756513666</v>
       </c>
       <c r="F9">
-        <v>0.9941436849452806</v>
+        <v>0.99414368494528</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036766122912292</v>
       </c>
       <c r="J9">
-        <v>1.000181911564718</v>
+        <v>1.000181911564717</v>
       </c>
       <c r="K9">
-        <v>1.011622174009104</v>
+        <v>1.011622174009103</v>
       </c>
       <c r="L9">
-        <v>0.998850269775466</v>
+        <v>0.998850269775465</v>
       </c>
       <c r="M9">
-        <v>1.007332496784074</v>
+        <v>1.007332496784073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9597025909632474</v>
+        <v>0.9597025909632491</v>
       </c>
       <c r="D10">
-        <v>0.988056551668931</v>
+        <v>0.9880565516689325</v>
       </c>
       <c r="E10">
-        <v>0.9737785112901353</v>
+        <v>0.9737785112901367</v>
       </c>
       <c r="F10">
-        <v>0.9812956439425173</v>
+        <v>0.9812956439425184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03182803470671</v>
+        <v>1.031828034706711</v>
       </c>
       <c r="J10">
-        <v>0.9896115671700149</v>
+        <v>0.9896115671700162</v>
       </c>
       <c r="K10">
-        <v>1.002644849900683</v>
+        <v>1.002644849900684</v>
       </c>
       <c r="L10">
-        <v>0.9886379112154848</v>
+        <v>0.9886379112154863</v>
       </c>
       <c r="M10">
-        <v>0.9960110279877054</v>
+        <v>0.9960110279877064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9533438159229768</v>
+        <v>0.9533438159229749</v>
       </c>
       <c r="D11">
-        <v>0.9833072718855631</v>
+        <v>0.9833072718855613</v>
       </c>
       <c r="E11">
-        <v>0.9684451399644955</v>
+        <v>0.9684451399644939</v>
       </c>
       <c r="F11">
-        <v>0.9754603440534831</v>
+        <v>0.9754603440534813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029562145643682</v>
+        <v>1.029562145643681</v>
       </c>
       <c r="J11">
-        <v>0.9847951408837381</v>
+        <v>0.9847951408837363</v>
       </c>
       <c r="K11">
-        <v>0.9985510072131362</v>
+        <v>0.9985510072131347</v>
       </c>
       <c r="L11">
-        <v>0.9839877211117508</v>
+        <v>0.9839877211117489</v>
       </c>
       <c r="M11">
-        <v>0.9908603706892037</v>
+        <v>0.9908603706892017</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9509296829929162</v>
+        <v>0.9509296829929184</v>
       </c>
       <c r="D12">
-        <v>0.9815059151959855</v>
+        <v>0.9815059151959873</v>
       </c>
       <c r="E12">
-        <v>0.9664225736626481</v>
+        <v>0.9664225736626501</v>
       </c>
       <c r="F12">
-        <v>0.9732477074023699</v>
+        <v>0.9732477074023714</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028699530192407</v>
+        <v>1.028699530192408</v>
       </c>
       <c r="J12">
-        <v>0.9829664353708865</v>
+        <v>0.9829664353708883</v>
       </c>
       <c r="K12">
-        <v>0.9969962219752379</v>
+        <v>0.9969962219752397</v>
       </c>
       <c r="L12">
-        <v>0.9822226324204616</v>
+        <v>0.9822226324204635</v>
       </c>
       <c r="M12">
-        <v>0.988906035574513</v>
+        <v>0.9889060355745147</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9514499751615975</v>
+        <v>0.9514499751615983</v>
       </c>
       <c r="D13">
-        <v>0.9818940593843025</v>
+        <v>0.9818940593843034</v>
       </c>
       <c r="E13">
-        <v>0.9668583690977761</v>
+        <v>0.9668583690977771</v>
       </c>
       <c r="F13">
-        <v>0.9737244441520733</v>
+        <v>0.973724444152074</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028885544309641</v>
+        <v>1.028885544309642</v>
       </c>
       <c r="J13">
-        <v>0.9833605596458608</v>
+        <v>0.9833605596458617</v>
       </c>
       <c r="K13">
-        <v>0.997331329067399</v>
+        <v>0.9973313290673997</v>
       </c>
       <c r="L13">
-        <v>0.9826030228232566</v>
+        <v>0.9826030228232576</v>
       </c>
       <c r="M13">
-        <v>0.9893271771194044</v>
+        <v>0.9893271771194052</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.953145360034779</v>
+        <v>0.9531453600347783</v>
       </c>
       <c r="D14">
-        <v>0.9831591530466752</v>
+        <v>0.9831591530466744</v>
       </c>
       <c r="E14">
-        <v>0.968278825686277</v>
+        <v>0.9682788256862763</v>
       </c>
       <c r="F14">
-        <v>0.9752783948134095</v>
+        <v>0.9752783948134089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029491280484974</v>
+        <v>1.029491280484973</v>
       </c>
       <c r="J14">
-        <v>0.984644812180668</v>
+        <v>0.9846448121806674</v>
       </c>
       <c r="K14">
-        <v>0.9984232044677753</v>
+        <v>0.9984232044677747</v>
       </c>
       <c r="L14">
-        <v>0.9838426116995673</v>
+        <v>0.9838426116995667</v>
       </c>
       <c r="M14">
-        <v>0.9906996884310617</v>
+        <v>0.9906996884310613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9541828600447595</v>
+        <v>0.9541828600447604</v>
       </c>
       <c r="D15">
-        <v>0.9839335697562791</v>
+        <v>0.9839335697562802</v>
       </c>
       <c r="E15">
-        <v>0.9691483873893945</v>
+        <v>0.9691483873893958</v>
       </c>
       <c r="F15">
-        <v>0.9762297139417647</v>
+        <v>0.9762297139417658</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029861658852351</v>
+        <v>1.029861658852352</v>
       </c>
       <c r="J15">
-        <v>0.9854307056323789</v>
+        <v>0.9854307056323799</v>
       </c>
       <c r="K15">
-        <v>0.9990913188553822</v>
+        <v>0.9990913188553832</v>
       </c>
       <c r="L15">
-        <v>0.9846012400649723</v>
+        <v>0.9846012400649734</v>
       </c>
       <c r="M15">
-        <v>0.9915397605777463</v>
+        <v>0.9915397605777475</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9601175780630835</v>
+        <v>0.9601175780630815</v>
       </c>
       <c r="D16">
-        <v>0.9883667202715873</v>
+        <v>0.9883667202715861</v>
       </c>
       <c r="E16">
-        <v>0.9741268761523371</v>
+        <v>0.974126876152335</v>
       </c>
       <c r="F16">
-        <v>0.9816768313785316</v>
+        <v>0.9816768313785299</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.031975578208638</v>
       </c>
       <c r="J16">
-        <v>0.989925869867015</v>
+        <v>0.9899258698670131</v>
       </c>
       <c r="K16">
-        <v>1.002911936684023</v>
+        <v>1.002911936684021</v>
       </c>
       <c r="L16">
-        <v>0.9889414328268883</v>
+        <v>0.9889414328268862</v>
       </c>
       <c r="M16">
-        <v>0.9963473122662609</v>
+        <v>0.9963473122662593</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9637529571692331</v>
+        <v>0.9637529571692335</v>
       </c>
       <c r="D17">
-        <v>0.9910849704777427</v>
+        <v>0.9910849704777434</v>
       </c>
       <c r="E17">
-        <v>0.9771801704578639</v>
+        <v>0.9771801704578648</v>
       </c>
       <c r="F17">
-        <v>0.985018007841454</v>
+        <v>0.9850180078414545</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033266224903822</v>
       </c>
       <c r="J17">
-        <v>0.9926790257727846</v>
+        <v>0.9926790257727849</v>
       </c>
       <c r="K17">
-        <v>1.005251139172568</v>
+        <v>1.005251139172569</v>
       </c>
       <c r="L17">
-        <v>0.9916005049164738</v>
+        <v>0.9916005049164742</v>
       </c>
       <c r="M17">
-        <v>0.9992939260026086</v>
+        <v>0.999293926002609</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9658435390591402</v>
+        <v>0.965843539059141</v>
       </c>
       <c r="D18">
-        <v>0.992649015902101</v>
+        <v>0.9926490159021014</v>
       </c>
       <c r="E18">
-        <v>0.9789372590401971</v>
+        <v>0.9789372590401972</v>
       </c>
       <c r="F18">
-        <v>0.9869409341722807</v>
+        <v>0.986940934172281</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>1.034006852841252</v>
       </c>
       <c r="J18">
-        <v>0.9942620737777734</v>
+        <v>0.9942620737777741</v>
       </c>
       <c r="K18">
         <v>1.006595854895225</v>
       </c>
       <c r="L18">
-        <v>0.9931297447963988</v>
+        <v>0.993129744796399</v>
       </c>
       <c r="M18">
         <v>1.000988956925553</v>
@@ -1073,7 +1073,7 @@
         <v>0.9931787708136424</v>
       </c>
       <c r="E19">
-        <v>0.9795324461584132</v>
+        <v>0.9795324461584133</v>
       </c>
       <c r="F19">
         <v>0.9875923249648781</v>
@@ -1085,13 +1085,13 @@
         <v>1.034257371147557</v>
       </c>
       <c r="J19">
-        <v>0.9947980851354949</v>
+        <v>0.9947980851354951</v>
       </c>
       <c r="K19">
         <v>1.007051113680228</v>
       </c>
       <c r="L19">
-        <v>0.9936475852698738</v>
+        <v>0.9936475852698741</v>
       </c>
       <c r="M19">
         <v>1.001563009813326</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633660396925428</v>
+        <v>0.9633660396925431</v>
       </c>
       <c r="D20">
-        <v>0.9907955713419709</v>
+        <v>0.9907955713419716</v>
       </c>
       <c r="E20">
-        <v>0.976855073958701</v>
+        <v>0.9768550739587019</v>
       </c>
       <c r="F20">
-        <v>0.9846622417503966</v>
+        <v>0.9846622417503973</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033129023083471</v>
       </c>
       <c r="J20">
-        <v>0.9923860237400237</v>
+        <v>0.9923860237400244</v>
       </c>
       <c r="K20">
-        <v>1.005002223732307</v>
+        <v>1.005002223732308</v>
       </c>
       <c r="L20">
-        <v>0.9913174853479949</v>
+        <v>0.9913174853479952</v>
       </c>
       <c r="M20">
-        <v>0.9989802573970301</v>
+        <v>0.9989802573970307</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9526475972302341</v>
+        <v>0.9526475972302327</v>
       </c>
       <c r="D21">
-        <v>0.9827876733250125</v>
+        <v>0.9827876733250115</v>
       </c>
       <c r="E21">
-        <v>0.9678617171089019</v>
+        <v>0.9678617171089005</v>
       </c>
       <c r="F21">
-        <v>0.974822078907707</v>
+        <v>0.974822078907706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029313500622048</v>
+        <v>1.029313500622047</v>
       </c>
       <c r="J21">
-        <v>0.9842677594511751</v>
+        <v>0.9842677594511736</v>
       </c>
       <c r="K21">
-        <v>0.9981026443874074</v>
+        <v>0.9981026443874066</v>
       </c>
       <c r="L21">
-        <v>0.9834786580864766</v>
+        <v>0.9834786580864755</v>
       </c>
       <c r="M21">
-        <v>0.9902966877073703</v>
+        <v>0.990296687707369</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9456033459194428</v>
+        <v>0.9456033459194426</v>
       </c>
       <c r="D22">
-        <v>0.9775351000318946</v>
+        <v>0.9775351000318945</v>
       </c>
       <c r="E22">
-        <v>0.9619646471298133</v>
+        <v>0.9619646471298131</v>
       </c>
       <c r="F22">
         <v>0.9683713617160753</v>
@@ -1199,16 +1199,16 @@
         <v>1.026792154501671</v>
       </c>
       <c r="J22">
-        <v>0.9789316991393191</v>
+        <v>0.9789316991393189</v>
       </c>
       <c r="K22">
-        <v>0.9935651251315101</v>
+        <v>0.99356512513151</v>
       </c>
       <c r="L22">
-        <v>0.9783292195827502</v>
+        <v>0.9783292195827501</v>
       </c>
       <c r="M22">
-        <v>0.9845965510430957</v>
+        <v>0.9845965510430954</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493684733545794</v>
+        <v>0.9493684733545791</v>
       </c>
       <c r="D23">
-        <v>0.9803415115954865</v>
+        <v>0.9803415115954863</v>
       </c>
       <c r="E23">
-        <v>0.9651152615200558</v>
+        <v>0.9651152615200559</v>
       </c>
       <c r="F23">
-        <v>0.9718176190047814</v>
+        <v>0.9718176190047818</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028141035482478</v>
       </c>
       <c r="J23">
-        <v>0.9817838051275906</v>
+        <v>0.9817838051275903</v>
       </c>
       <c r="K23">
         <v>0.9959906238620936</v>
       </c>
       <c r="L23">
-        <v>0.9810812887887612</v>
+        <v>0.9810812887887611</v>
       </c>
       <c r="M23">
-        <v>0.9876425280114484</v>
+        <v>0.9876425280114485</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9635409629867565</v>
+        <v>0.9635409629867563</v>
       </c>
       <c r="D24">
-        <v>0.9909264044302023</v>
+        <v>0.9909264044302021</v>
       </c>
       <c r="E24">
-        <v>0.9770020444753316</v>
+        <v>0.9770020444753311</v>
       </c>
       <c r="F24">
-        <v>0.9848230769341926</v>
+        <v>0.9848230769341922</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033191056201957</v>
       </c>
       <c r="J24">
-        <v>0.9925184889973351</v>
+        <v>0.992518488997335</v>
       </c>
       <c r="K24">
         <v>1.005114758559023</v>
       </c>
       <c r="L24">
-        <v>0.9914454366682105</v>
+        <v>0.9914454366682101</v>
       </c>
       <c r="M24">
-        <v>0.9991220636301008</v>
+        <v>0.9991220636301006</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9788276485232755</v>
+        <v>0.9788276485232761</v>
       </c>
       <c r="D25">
-        <v>1.00237592134182</v>
+        <v>1.002375921341821</v>
       </c>
       <c r="E25">
-        <v>0.9898700294955094</v>
+        <v>0.9898700294955104</v>
       </c>
       <c r="F25">
-        <v>0.9989085287575736</v>
+        <v>0.9989085287575744</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038577666039289</v>
+        <v>1.03857766603929</v>
       </c>
       <c r="J25">
-        <v>1.004089176538469</v>
+        <v>1.00408917653847</v>
       </c>
       <c r="K25">
-        <v>1.014937465818761</v>
+        <v>1.014937465818762</v>
       </c>
       <c r="L25">
         <v>1.002627662378022</v>
       </c>
       <c r="M25">
-        <v>1.011523812073551</v>
+        <v>1.011523812073552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9902384580471915</v>
+        <v>0.9925716426183278</v>
       </c>
       <c r="D2">
-        <v>1.010939933368487</v>
+        <v>1.012705527609516</v>
       </c>
       <c r="E2">
-        <v>0.9995055721958394</v>
+        <v>1.001490151856305</v>
       </c>
       <c r="F2">
-        <v>1.009460790732267</v>
+        <v>1.011174774629101</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04254603138146</v>
+        <v>1.043485298997094</v>
       </c>
       <c r="J2">
-        <v>1.012715107436486</v>
+        <v>1.014976827596508</v>
       </c>
       <c r="K2">
-        <v>1.022248932811551</v>
+        <v>1.02399064724547</v>
       </c>
       <c r="L2">
-        <v>1.01097179948331</v>
+        <v>1.012928765462535</v>
       </c>
       <c r="M2">
-        <v>1.020789876625944</v>
+        <v>1.022480591776459</v>
+      </c>
+      <c r="N2">
+        <v>1.016418211111164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9981325491186174</v>
+        <v>1.000448708337355</v>
       </c>
       <c r="D3">
-        <v>1.016871210271834</v>
+        <v>1.018626318639733</v>
       </c>
       <c r="E3">
-        <v>1.006186084949418</v>
+        <v>1.008158379659885</v>
       </c>
       <c r="F3">
-        <v>1.016779815703207</v>
+        <v>1.018478829267876</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04525921660442</v>
+        <v>1.04619377916737</v>
       </c>
       <c r="J3">
-        <v>1.018674252511996</v>
+        <v>1.020927148580668</v>
       </c>
       <c r="K3">
-        <v>1.027292677560695</v>
+        <v>1.029026292737648</v>
       </c>
       <c r="L3">
-        <v>1.016740420858068</v>
+        <v>1.018687925991222</v>
       </c>
       <c r="M3">
-        <v>1.027202404745112</v>
+        <v>1.028880605987252</v>
+      </c>
+      <c r="N3">
+        <v>1.022376982233633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003077040401053</v>
+        <v>1.005383315619292</v>
       </c>
       <c r="D4">
-        <v>1.020588358181189</v>
+        <v>1.022337424057699</v>
       </c>
       <c r="E4">
-        <v>1.010376375529628</v>
+        <v>1.012341569262118</v>
       </c>
       <c r="F4">
-        <v>1.021371968562215</v>
+        <v>1.023062228728009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046943205404652</v>
+        <v>1.047875117281393</v>
       </c>
       <c r="J4">
-        <v>1.022402361344345</v>
+        <v>1.024650310929536</v>
       </c>
       <c r="K4">
-        <v>1.030444491274455</v>
+        <v>1.032173528563094</v>
       </c>
       <c r="L4">
-        <v>1.020351159406342</v>
+        <v>1.022293289870214</v>
       </c>
       <c r="M4">
-        <v>1.031219118049235</v>
+        <v>1.032890058240528</v>
+      </c>
+      <c r="N4">
+        <v>1.02610543190009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005118891441491</v>
+        <v>1.007421257102682</v>
       </c>
       <c r="D5">
-        <v>1.02212373487185</v>
+        <v>1.023870422149129</v>
       </c>
       <c r="E5">
-        <v>1.012108090473028</v>
+        <v>1.014070483324557</v>
       </c>
       <c r="F5">
-        <v>1.023270088482135</v>
+        <v>1.024956871783271</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047634836590255</v>
+        <v>1.048565720191393</v>
       </c>
       <c r="J5">
-        <v>1.023940762910803</v>
+        <v>1.026186798634214</v>
       </c>
       <c r="K5">
-        <v>1.031744186323105</v>
+        <v>1.033471443356743</v>
       </c>
       <c r="L5">
-        <v>1.021841553546</v>
+        <v>1.023781586893407</v>
       </c>
       <c r="M5">
-        <v>1.032877778631107</v>
+        <v>1.034545848343085</v>
+      </c>
+      <c r="N5">
+        <v>1.027644101593545</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005459632376655</v>
+        <v>1.007761355335117</v>
       </c>
       <c r="D6">
-        <v>1.022379973774964</v>
+        <v>1.02412627072604</v>
       </c>
       <c r="E6">
-        <v>1.012397150733019</v>
+        <v>1.014359083618001</v>
       </c>
       <c r="F6">
-        <v>1.023586944625538</v>
+        <v>1.025273155510065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047750030367616</v>
+        <v>1.048680746145855</v>
       </c>
       <c r="J6">
-        <v>1.024197419851912</v>
+        <v>1.02644314348819</v>
       </c>
       <c r="K6">
-        <v>1.031960965230967</v>
+        <v>1.033687931429922</v>
       </c>
       <c r="L6">
-        <v>1.022090225931324</v>
+        <v>1.024029916248232</v>
       </c>
       <c r="M6">
-        <v>1.03315456678158</v>
+        <v>1.034822164720632</v>
+      </c>
+      <c r="N6">
+        <v>1.027900810486618</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003104465438183</v>
+        <v>1.005410687482499</v>
       </c>
       <c r="D7">
-        <v>1.020608979262564</v>
+        <v>1.022358012740584</v>
       </c>
       <c r="E7">
-        <v>1.010399629916922</v>
+        <v>1.012364785522315</v>
       </c>
       <c r="F7">
-        <v>1.021397456223515</v>
+        <v>1.023087669158326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046952510090007</v>
+        <v>1.047884407898695</v>
       </c>
       <c r="J7">
-        <v>1.02242302892815</v>
+        <v>1.02467095231025</v>
       </c>
       <c r="K7">
-        <v>1.030461955568613</v>
+        <v>1.032190968520039</v>
       </c>
       <c r="L7">
-        <v>1.020371180366898</v>
+        <v>1.022313282191027</v>
       </c>
       <c r="M7">
-        <v>1.031241396656037</v>
+        <v>1.032912297798639</v>
+      </c>
+      <c r="N7">
+        <v>1.026126102593932</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.992941633405646</v>
+        <v>0.995268813224747</v>
       </c>
       <c r="D8">
-        <v>1.012970457674909</v>
+        <v>1.014732344004903</v>
       </c>
       <c r="E8">
-        <v>1.001791858970494</v>
+        <v>1.003772099172754</v>
       </c>
       <c r="F8">
-        <v>1.011965310176119</v>
+        <v>1.013674028340968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043478318605185</v>
+        <v>1.044415909284623</v>
       </c>
       <c r="J8">
-        <v>1.014756584094963</v>
+        <v>1.017015153009649</v>
       </c>
       <c r="K8">
-        <v>1.023977556022539</v>
+        <v>1.025716386710025</v>
       </c>
       <c r="L8">
-        <v>1.012947612972393</v>
+        <v>1.014901216269417</v>
       </c>
       <c r="M8">
-        <v>1.022985606738961</v>
+        <v>1.024671907879174</v>
+      </c>
+      <c r="N8">
+        <v>1.018459431180192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973663596498716</v>
+        <v>0.9760377415483743</v>
       </c>
       <c r="D9">
-        <v>0.9985047914184105</v>
+        <v>1.000295873377596</v>
       </c>
       <c r="E9">
-        <v>0.9855177756513666</v>
+        <v>0.9875320908927389</v>
       </c>
       <c r="F9">
-        <v>0.99414368494528</v>
+        <v>0.9958932480413567</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036766122912292</v>
+        <v>1.037717199852165</v>
       </c>
       <c r="J9">
-        <v>1.000181911564717</v>
+        <v>1.002466000742258</v>
       </c>
       <c r="K9">
-        <v>1.011622174009103</v>
+        <v>1.013384152065856</v>
       </c>
       <c r="L9">
-        <v>0.998850269775465</v>
+        <v>1.00083074289885</v>
       </c>
       <c r="M9">
-        <v>1.007332496784073</v>
+        <v>1.009053307696306</v>
+      </c>
+      <c r="N9">
+        <v>1.00388961744777</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9597025909632491</v>
+        <v>0.9621171323923582</v>
       </c>
       <c r="D10">
-        <v>0.9880565516689325</v>
+        <v>0.9898729748905281</v>
       </c>
       <c r="E10">
-        <v>0.9737785112901367</v>
+        <v>0.9758222933863369</v>
       </c>
       <c r="F10">
-        <v>0.9812956439425184</v>
+        <v>0.9830798379027211</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031828034706711</v>
+        <v>1.032791178966691</v>
       </c>
       <c r="J10">
-        <v>0.9896115671700162</v>
+        <v>0.9919187922386762</v>
       </c>
       <c r="K10">
-        <v>1.002644849900684</v>
+        <v>1.004427515336347</v>
       </c>
       <c r="L10">
-        <v>0.9886379112154863</v>
+        <v>0.9906422501893688</v>
       </c>
       <c r="M10">
-        <v>0.9960110279877064</v>
+        <v>0.9977614623250424</v>
+      </c>
+      <c r="N10">
+        <v>0.9933274306983306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9533438159229749</v>
+        <v>0.9557786950953603</v>
       </c>
       <c r="D11">
-        <v>0.9833072718855613</v>
+        <v>0.9851364966751518</v>
       </c>
       <c r="E11">
-        <v>0.9684451399644939</v>
+        <v>0.9705037865155309</v>
       </c>
       <c r="F11">
-        <v>0.9754603440534813</v>
+        <v>0.9772618366957621</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029562145643681</v>
+        <v>1.030531467182446</v>
       </c>
       <c r="J11">
-        <v>0.9847951408837363</v>
+        <v>0.9871143023987408</v>
       </c>
       <c r="K11">
-        <v>0.9985510072131347</v>
+        <v>1.000344268030026</v>
       </c>
       <c r="L11">
-        <v>0.9839877211117489</v>
+        <v>0.9860042526610797</v>
       </c>
       <c r="M11">
-        <v>0.9908603706892017</v>
+        <v>0.992625690049262</v>
+      </c>
+      <c r="N11">
+        <v>0.9885161179317399</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9509296829929184</v>
+        <v>0.9533726194463632</v>
       </c>
       <c r="D12">
-        <v>0.9815059151959873</v>
+        <v>0.9833402171149106</v>
       </c>
       <c r="E12">
-        <v>0.9664225736626501</v>
+        <v>0.9684871126970721</v>
       </c>
       <c r="F12">
-        <v>0.9732477074023714</v>
+        <v>0.975056031180858</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028699530192408</v>
+        <v>1.029671313523229</v>
       </c>
       <c r="J12">
-        <v>0.9829664353708883</v>
+        <v>0.98529036979674</v>
       </c>
       <c r="K12">
-        <v>0.9969962219752397</v>
+        <v>0.9987937070804557</v>
       </c>
       <c r="L12">
-        <v>0.9822226324204635</v>
+        <v>0.9842440207724249</v>
       </c>
       <c r="M12">
-        <v>0.9889060355745147</v>
+        <v>0.9906772462274197</v>
+      </c>
+      <c r="N12">
+        <v>0.9866895951362363</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9514499751615983</v>
+        <v>0.9538911591466023</v>
       </c>
       <c r="D13">
-        <v>0.9818940593843034</v>
+        <v>0.983727256793032</v>
       </c>
       <c r="E13">
-        <v>0.9668583690977771</v>
+        <v>0.9689216263636963</v>
       </c>
       <c r="F13">
-        <v>0.973724444152074</v>
+        <v>0.9755312831717337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028885544309642</v>
+        <v>1.029856791559742</v>
       </c>
       <c r="J13">
-        <v>0.9833605596458617</v>
+        <v>0.9856834539736093</v>
       </c>
       <c r="K13">
-        <v>0.9973313290673997</v>
+        <v>0.9991278941950856</v>
       </c>
       <c r="L13">
-        <v>0.9826030228232576</v>
+        <v>0.9846233536332522</v>
       </c>
       <c r="M13">
-        <v>0.9893271771194052</v>
+        <v>0.9910971066911912</v>
+      </c>
+      <c r="N13">
+        <v>0.9870832375377242</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9531453600347783</v>
+        <v>0.9555808944684953</v>
       </c>
       <c r="D14">
-        <v>0.9831591530466744</v>
+        <v>0.984988790632276</v>
       </c>
       <c r="E14">
-        <v>0.9682788256862763</v>
+        <v>0.9703379513792197</v>
       </c>
       <c r="F14">
-        <v>0.9752783948134089</v>
+        <v>0.9770804434530379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029491280484973</v>
+        <v>1.03046080194438</v>
       </c>
       <c r="J14">
-        <v>0.9846448121806674</v>
+        <v>0.9869643609710886</v>
       </c>
       <c r="K14">
-        <v>0.9984232044677747</v>
+        <v>1.000216808295654</v>
       </c>
       <c r="L14">
-        <v>0.9838426116995667</v>
+        <v>0.9858595377032724</v>
       </c>
       <c r="M14">
-        <v>0.9906996884310613</v>
+        <v>0.9924654870262744</v>
+      </c>
+      <c r="N14">
+        <v>0.9883659635700622</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9541828600447604</v>
+        <v>0.9566149827881304</v>
       </c>
       <c r="D15">
-        <v>0.9839335697562802</v>
+        <v>0.9857610582864335</v>
       </c>
       <c r="E15">
-        <v>0.9691483873893958</v>
+        <v>0.9712050185148106</v>
       </c>
       <c r="F15">
-        <v>0.9762297139417658</v>
+        <v>0.9780288668261332</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029861658852352</v>
+        <v>1.030830139977313</v>
       </c>
       <c r="J15">
-        <v>0.9854307056323799</v>
+        <v>0.9877482397901406</v>
       </c>
       <c r="K15">
-        <v>0.9990913188553832</v>
+        <v>1.000883137820625</v>
       </c>
       <c r="L15">
-        <v>0.9846012400649734</v>
+        <v>0.9866161133514646</v>
       </c>
       <c r="M15">
-        <v>0.9915397605777475</v>
+        <v>0.993303063743853</v>
+      </c>
+      <c r="N15">
+        <v>0.9891509555869492</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9601175780630815</v>
+        <v>0.962530835767365</v>
       </c>
       <c r="D16">
-        <v>0.9883667202715861</v>
+        <v>0.9901823362324826</v>
       </c>
       <c r="E16">
-        <v>0.974126876152335</v>
+        <v>0.9761697205151695</v>
       </c>
       <c r="F16">
-        <v>0.9816768313785299</v>
+        <v>0.9834599306087257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031975578208638</v>
+        <v>1.032938334512674</v>
       </c>
       <c r="J16">
-        <v>0.9899258698670131</v>
+        <v>0.9922323472717924</v>
       </c>
       <c r="K16">
-        <v>1.002911936684021</v>
+        <v>1.004693936874633</v>
       </c>
       <c r="L16">
-        <v>0.9889414328268862</v>
+        <v>0.9909450056968717</v>
       </c>
       <c r="M16">
-        <v>0.9963473122662593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9980968063711499</v>
+      </c>
+      <c r="N16">
+        <v>0.9936414310155595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9637529571692335</v>
+        <v>0.9661551915143973</v>
       </c>
       <c r="D17">
-        <v>0.9910849704777434</v>
+        <v>0.9928936589961112</v>
       </c>
       <c r="E17">
-        <v>0.9771801704578648</v>
+        <v>0.9792149655261704</v>
       </c>
       <c r="F17">
-        <v>0.9850180078414545</v>
+        <v>0.9867916919028533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033266224903822</v>
+        <v>1.034225660599049</v>
       </c>
       <c r="J17">
-        <v>0.9926790257727849</v>
+        <v>0.9949791138069943</v>
       </c>
       <c r="K17">
-        <v>1.005251139172569</v>
+        <v>1.007027446060265</v>
       </c>
       <c r="L17">
-        <v>0.9916005049164742</v>
+        <v>0.9935975181103917</v>
       </c>
       <c r="M17">
-        <v>0.999293926002609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.001035343078084</v>
+      </c>
+      <c r="N17">
+        <v>0.9963920982742996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.965843539059141</v>
+        <v>0.9682396123734984</v>
       </c>
       <c r="D18">
-        <v>0.9926490159021014</v>
+        <v>0.9944538365126929</v>
       </c>
       <c r="E18">
-        <v>0.9789372590401972</v>
+        <v>0.9809675579303179</v>
       </c>
       <c r="F18">
-        <v>0.986940934172281</v>
+        <v>0.9887093441222334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034006852841252</v>
+        <v>1.034964441652358</v>
       </c>
       <c r="J18">
-        <v>0.9942620737777741</v>
+        <v>0.9965586161295732</v>
       </c>
       <c r="K18">
-        <v>1.006595854895225</v>
+        <v>1.008368995657242</v>
       </c>
       <c r="L18">
-        <v>0.993129744796399</v>
+        <v>0.995123107365268</v>
       </c>
       <c r="M18">
-        <v>1.000988956925553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.002725857225019</v>
+      </c>
+      <c r="N18">
+        <v>0.9979738436713479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665514488981675</v>
+        <v>0.9689454650074363</v>
       </c>
       <c r="D19">
-        <v>0.9931787708136424</v>
+        <v>0.9949823005933803</v>
       </c>
       <c r="E19">
-        <v>0.9795324461584133</v>
+        <v>0.9815612442144506</v>
       </c>
       <c r="F19">
-        <v>0.9875923249648781</v>
+        <v>0.9893589718796708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034257371147557</v>
+        <v>1.035214344826209</v>
       </c>
       <c r="J19">
-        <v>0.9947980851354951</v>
+        <v>0.9970934478521668</v>
       </c>
       <c r="K19">
-        <v>1.007051113680228</v>
+        <v>1.008823199962634</v>
       </c>
       <c r="L19">
-        <v>0.9936475852698741</v>
+        <v>0.9956397315291262</v>
       </c>
       <c r="M19">
-        <v>1.001563009813326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.003298401551914</v>
+      </c>
+      <c r="N19">
+        <v>0.9985094349163338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9633660396925431</v>
+        <v>0.9657694284532939</v>
       </c>
       <c r="D20">
-        <v>0.9907955713419716</v>
+        <v>0.9926049849311318</v>
       </c>
       <c r="E20">
-        <v>0.9768550739587019</v>
+        <v>0.9788907117140986</v>
       </c>
       <c r="F20">
-        <v>0.9846622417503973</v>
+        <v>0.9864369130730946</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033129023083471</v>
+        <v>1.034088805583942</v>
       </c>
       <c r="J20">
-        <v>0.9923860237400244</v>
+        <v>0.9946867782252053</v>
       </c>
       <c r="K20">
-        <v>1.005002223732308</v>
+        <v>1.006779125179156</v>
       </c>
       <c r="L20">
-        <v>0.9913174853479952</v>
+        <v>0.9933151838593466</v>
       </c>
       <c r="M20">
-        <v>0.9989802573970307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.000722520603783</v>
+      </c>
+      <c r="N20">
+        <v>0.9960993475424534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9526475972302327</v>
+        <v>0.9550847807424471</v>
       </c>
       <c r="D21">
-        <v>0.9827876733250115</v>
+        <v>0.9846183498667267</v>
       </c>
       <c r="E21">
-        <v>0.9678617171089005</v>
+        <v>0.9699220486992606</v>
       </c>
       <c r="F21">
-        <v>0.974822078907706</v>
+        <v>0.9766255264527635</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029313500622047</v>
+        <v>1.030283525444423</v>
       </c>
       <c r="J21">
-        <v>0.9842677594511736</v>
+        <v>0.9865882835891467</v>
       </c>
       <c r="K21">
-        <v>0.9981026443874066</v>
+        <v>0.9998971118845672</v>
       </c>
       <c r="L21">
-        <v>0.9834786580864755</v>
+        <v>0.9854965772222973</v>
       </c>
       <c r="M21">
-        <v>0.990296687707369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9920636922841526</v>
+      </c>
+      <c r="N21">
+        <v>0.9879893521151011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9456033459194426</v>
+        <v>0.9480647380400583</v>
       </c>
       <c r="D22">
-        <v>0.9775351000318945</v>
+        <v>0.9793810404873919</v>
       </c>
       <c r="E22">
-        <v>0.9619646471298131</v>
+        <v>0.9640426889540907</v>
       </c>
       <c r="F22">
-        <v>0.9683713617160753</v>
+        <v>0.9701952887973651</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026792154501671</v>
+        <v>1.027769603152255</v>
       </c>
       <c r="J22">
-        <v>0.9789316991393189</v>
+        <v>0.9812666499413215</v>
       </c>
       <c r="K22">
-        <v>0.99356512513151</v>
+        <v>0.9953723360398762</v>
       </c>
       <c r="L22">
-        <v>0.9783292195827501</v>
+        <v>0.9803617822913595</v>
       </c>
       <c r="M22">
-        <v>0.9845965510430954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9863812434620508</v>
+      </c>
+      <c r="N22">
+        <v>0.9826601611370964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493684733545791</v>
+        <v>0.9518167215604374</v>
       </c>
       <c r="D23">
-        <v>0.9803415115954863</v>
+        <v>0.982179162018492</v>
       </c>
       <c r="E23">
-        <v>0.9651152615200559</v>
+        <v>0.96718368606623</v>
       </c>
       <c r="F23">
-        <v>0.9718176190047818</v>
+        <v>0.9736304397102643</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028141035482478</v>
+        <v>1.029114445751107</v>
       </c>
       <c r="J23">
-        <v>0.9817838051275903</v>
+        <v>0.9841108986245426</v>
       </c>
       <c r="K23">
-        <v>0.9959906238620936</v>
+        <v>0.9977909013194743</v>
       </c>
       <c r="L23">
-        <v>0.9810812887887611</v>
+        <v>0.9831058864301939</v>
       </c>
       <c r="M23">
-        <v>0.9876425280114485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9894176206730182</v>
+      </c>
+      <c r="N23">
+        <v>0.9855084489796873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9635409629867563</v>
+        <v>0.9659438292919034</v>
       </c>
       <c r="D24">
-        <v>0.9909264044302021</v>
+        <v>0.9927354898606813</v>
       </c>
       <c r="E24">
-        <v>0.9770020444753311</v>
+        <v>0.9790373008462401</v>
       </c>
       <c r="F24">
-        <v>0.9848230769341922</v>
+        <v>0.9865973014879166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033191056201957</v>
+        <v>1.034150681719799</v>
       </c>
       <c r="J24">
-        <v>0.992518488997335</v>
+        <v>0.9948189417859823</v>
       </c>
       <c r="K24">
-        <v>1.005114758559023</v>
+        <v>1.006891390875285</v>
       </c>
       <c r="L24">
-        <v>0.9914454366682101</v>
+        <v>0.9934428249752492</v>
       </c>
       <c r="M24">
-        <v>0.9991220636301006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.00086394390962</v>
+      </c>
+      <c r="N24">
+        <v>0.9962316987906461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9788276485232761</v>
+        <v>0.9811882487276928</v>
       </c>
       <c r="D25">
-        <v>1.002375921341821</v>
+        <v>1.004158544516996</v>
       </c>
       <c r="E25">
-        <v>0.9898700294955104</v>
+        <v>0.991874490680028</v>
       </c>
       <c r="F25">
-        <v>0.9989085287575744</v>
+        <v>1.000646385645708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03857766603929</v>
+        <v>1.039524778082477</v>
       </c>
       <c r="J25">
-        <v>1.00408917653847</v>
+        <v>1.006365722760496</v>
       </c>
       <c r="K25">
-        <v>1.014937465818762</v>
+        <v>1.016692645630313</v>
       </c>
       <c r="L25">
-        <v>1.002627662378022</v>
+        <v>1.004600268079054</v>
       </c>
       <c r="M25">
-        <v>1.011523812073552</v>
+        <v>1.013234675589815</v>
+      </c>
+      <c r="N25">
+        <v>1.007794877518578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9925716426183278</v>
+        <v>1.000413037042557</v>
       </c>
       <c r="D2">
-        <v>1.012705527609516</v>
+        <v>1.020586568268061</v>
       </c>
       <c r="E2">
-        <v>1.001490151856305</v>
+        <v>1.006450960674449</v>
       </c>
       <c r="F2">
-        <v>1.011174774629101</v>
+        <v>1.021204695349574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043485298997094</v>
+        <v>1.042395743523486</v>
       </c>
       <c r="J2">
-        <v>1.014976827596508</v>
+        <v>1.022581401255846</v>
       </c>
       <c r="K2">
-        <v>1.02399064724547</v>
+        <v>1.031766360402866</v>
       </c>
       <c r="L2">
-        <v>1.012928765462535</v>
+        <v>1.01782114904825</v>
       </c>
       <c r="M2">
-        <v>1.022480591776459</v>
+        <v>1.032376312670907</v>
       </c>
       <c r="N2">
-        <v>1.016418211111164</v>
+        <v>1.024033584137355</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000448708337355</v>
+        <v>1.006860445706793</v>
       </c>
       <c r="D3">
-        <v>1.018626318639733</v>
+        <v>1.025673725539042</v>
       </c>
       <c r="E3">
-        <v>1.008158379659885</v>
+        <v>1.011764538411175</v>
       </c>
       <c r="F3">
-        <v>1.018478829267876</v>
+        <v>1.027254393341166</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04619377916737</v>
+        <v>1.044281065751814</v>
       </c>
       <c r="J3">
-        <v>1.020927148580668</v>
+        <v>1.027165819314281</v>
       </c>
       <c r="K3">
-        <v>1.029026292737648</v>
+        <v>1.035988315790846</v>
       </c>
       <c r="L3">
-        <v>1.018687925991222</v>
+        <v>1.022249070611366</v>
       </c>
       <c r="M3">
-        <v>1.028880605987252</v>
+        <v>1.037550032320668</v>
       </c>
       <c r="N3">
-        <v>1.022376982233633</v>
+        <v>1.028624512595273</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005383315619292</v>
+        <v>1.010921789822681</v>
       </c>
       <c r="D4">
-        <v>1.022337424057699</v>
+        <v>1.028880885123923</v>
       </c>
       <c r="E4">
-        <v>1.012341569262118</v>
+        <v>1.015117824421629</v>
       </c>
       <c r="F4">
-        <v>1.023062228728009</v>
+        <v>1.031071828732982</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047875117281393</v>
+        <v>1.045457184239826</v>
       </c>
       <c r="J4">
-        <v>1.024650310929536</v>
+        <v>1.030050181998401</v>
       </c>
       <c r="K4">
-        <v>1.032173528563094</v>
+        <v>1.038642804322478</v>
       </c>
       <c r="L4">
-        <v>1.022293289870214</v>
+        <v>1.025037151410906</v>
       </c>
       <c r="M4">
-        <v>1.032890058240528</v>
+        <v>1.040809167566684</v>
       </c>
       <c r="N4">
-        <v>1.02610543190009</v>
+        <v>1.031512971405246</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007421257102682</v>
+        <v>1.012604009908533</v>
       </c>
       <c r="D5">
-        <v>1.023870422149129</v>
+        <v>1.030209849021224</v>
       </c>
       <c r="E5">
-        <v>1.014070483324557</v>
+        <v>1.016508166866919</v>
       </c>
       <c r="F5">
-        <v>1.024956871783271</v>
+        <v>1.032654533846178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048565720191393</v>
+        <v>1.045941524933137</v>
       </c>
       <c r="J5">
-        <v>1.026186798634214</v>
+        <v>1.031244008273193</v>
       </c>
       <c r="K5">
-        <v>1.033471443356743</v>
+        <v>1.039741029846663</v>
       </c>
       <c r="L5">
-        <v>1.023781586893407</v>
+        <v>1.02619164364336</v>
       </c>
       <c r="M5">
-        <v>1.034545848343085</v>
+        <v>1.042159063147436</v>
       </c>
       <c r="N5">
-        <v>1.027644101593545</v>
+        <v>1.032708493050282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007761355335117</v>
+        <v>1.012885022192465</v>
       </c>
       <c r="D6">
-        <v>1.02412627072604</v>
+        <v>1.030431880198033</v>
       </c>
       <c r="E6">
-        <v>1.014359083618001</v>
+        <v>1.016740501735575</v>
       </c>
       <c r="F6">
-        <v>1.025273155510065</v>
+        <v>1.032919009171609</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048680746145855</v>
+        <v>1.046022266423704</v>
       </c>
       <c r="J6">
-        <v>1.02644314348819</v>
+        <v>1.031443381476333</v>
       </c>
       <c r="K6">
-        <v>1.033687931429922</v>
+        <v>1.039924409988754</v>
       </c>
       <c r="L6">
-        <v>1.024029916248232</v>
+        <v>1.026384478128347</v>
       </c>
       <c r="M6">
-        <v>1.034822164720632</v>
+        <v>1.042384556270723</v>
       </c>
       <c r="N6">
-        <v>1.027900810486618</v>
+        <v>1.032908149386239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005410687482499</v>
+        <v>1.010944364976911</v>
       </c>
       <c r="D7">
-        <v>1.022358012740584</v>
+        <v>1.028898717571808</v>
       </c>
       <c r="E7">
-        <v>1.012364785522315</v>
+        <v>1.015136477172019</v>
       </c>
       <c r="F7">
-        <v>1.023087669158326</v>
+        <v>1.03109306252251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047884407898695</v>
+        <v>1.045463695213505</v>
       </c>
       <c r="J7">
-        <v>1.02467095231025</v>
+        <v>1.030066206550566</v>
       </c>
       <c r="K7">
-        <v>1.032190968520039</v>
+        <v>1.038657547471673</v>
       </c>
       <c r="L7">
-        <v>1.022313282191027</v>
+        <v>1.025052645952066</v>
       </c>
       <c r="M7">
-        <v>1.032912297798639</v>
+        <v>1.040827283255478</v>
       </c>
       <c r="N7">
-        <v>1.026126102593932</v>
+        <v>1.031529018714113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.995268813224747</v>
+        <v>1.002615674023617</v>
       </c>
       <c r="D8">
-        <v>1.014732344004903</v>
+        <v>1.022323883089592</v>
       </c>
       <c r="E8">
-        <v>1.003772099172754</v>
+        <v>1.008264898775082</v>
       </c>
       <c r="F8">
-        <v>1.013674028340968</v>
+        <v>1.023270020854806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044415909284623</v>
+        <v>1.043042211511345</v>
       </c>
       <c r="J8">
-        <v>1.017015153009649</v>
+        <v>1.024148272267378</v>
       </c>
       <c r="K8">
-        <v>1.025716386710025</v>
+        <v>1.033209720957165</v>
       </c>
       <c r="L8">
-        <v>1.014901216269417</v>
+        <v>1.019334068600899</v>
       </c>
       <c r="M8">
-        <v>1.024671907879174</v>
+        <v>1.034143747025748</v>
       </c>
       <c r="N8">
-        <v>1.018459431180192</v>
+        <v>1.025602680285447</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9760377415483743</v>
+        <v>0.987028959727383</v>
       </c>
       <c r="D9">
-        <v>1.000295873377596</v>
+        <v>1.010045448494841</v>
       </c>
       <c r="E9">
-        <v>0.9875320908927389</v>
+        <v>0.9954587345902371</v>
       </c>
       <c r="F9">
-        <v>0.9958932480413567</v>
+        <v>1.008686822296994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037717199852165</v>
+        <v>1.038420660594012</v>
       </c>
       <c r="J9">
-        <v>1.002466000742258</v>
+        <v>1.013048222950563</v>
       </c>
       <c r="K9">
-        <v>1.013384152065856</v>
+        <v>1.022977620965566</v>
       </c>
       <c r="L9">
-        <v>1.00083074289885</v>
+        <v>1.008625922874679</v>
       </c>
       <c r="M9">
-        <v>1.009053307696306</v>
+        <v>1.02164051672696</v>
       </c>
       <c r="N9">
-        <v>1.00388961744777</v>
+        <v>1.014486867625408</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9621171323923582</v>
+        <v>0.9759271100973241</v>
       </c>
       <c r="D10">
-        <v>0.9898729748905281</v>
+        <v>1.001324712790324</v>
       </c>
       <c r="E10">
-        <v>0.9758222933863369</v>
+        <v>0.9863799897493026</v>
       </c>
       <c r="F10">
-        <v>0.9830798379027211</v>
+        <v>0.9983447122757607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032791178966691</v>
+        <v>1.035071844119013</v>
       </c>
       <c r="J10">
-        <v>0.9919187922386762</v>
+        <v>1.005129494822304</v>
       </c>
       <c r="K10">
-        <v>1.004427515336347</v>
+        <v>1.015670090260244</v>
       </c>
       <c r="L10">
-        <v>0.9906422501893688</v>
+        <v>1.000999590517609</v>
       </c>
       <c r="M10">
-        <v>0.9977614623250424</v>
+        <v>1.012743917908452</v>
       </c>
       <c r="N10">
-        <v>0.9933274306983306</v>
+        <v>1.006556893994916</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9557786950953603</v>
+        <v>0.9709261231596676</v>
       </c>
       <c r="D11">
-        <v>0.9851364966751518</v>
+        <v>0.9974039726364059</v>
       </c>
       <c r="E11">
-        <v>0.9705037865155309</v>
+        <v>0.9823020028140879</v>
       </c>
       <c r="F11">
-        <v>0.9772618366957621</v>
+        <v>0.9936981729088821</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030531467182446</v>
+        <v>1.03355077244701</v>
       </c>
       <c r="J11">
-        <v>0.9871143023987408</v>
+        <v>1.001560503238229</v>
       </c>
       <c r="K11">
-        <v>1.000344268030026</v>
+        <v>1.012375012852798</v>
       </c>
       <c r="L11">
-        <v>0.9860042526610797</v>
+        <v>0.9975655774246768</v>
       </c>
       <c r="M11">
-        <v>0.992625690049262</v>
+        <v>1.008739919095821</v>
       </c>
       <c r="N11">
-        <v>0.9885161179317399</v>
+        <v>1.002982834033423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9533726194463632</v>
+        <v>0.9690369839824657</v>
       </c>
       <c r="D12">
-        <v>0.9833402171149106</v>
+        <v>0.9959242141514023</v>
       </c>
       <c r="E12">
-        <v>0.9684871126970721</v>
+        <v>0.9807634279021414</v>
       </c>
       <c r="F12">
-        <v>0.975056031180858</v>
+        <v>0.9919449077694065</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029671313523229</v>
+        <v>1.032974390114881</v>
       </c>
       <c r="J12">
-        <v>0.98529036979674</v>
+        <v>1.000212124636592</v>
       </c>
       <c r="K12">
-        <v>0.9987937070804557</v>
+        <v>1.011129918594613</v>
       </c>
       <c r="L12">
-        <v>0.9842440207724249</v>
+        <v>0.9962686889128025</v>
       </c>
       <c r="M12">
-        <v>0.9906772462274197</v>
+        <v>1.0072280750388</v>
       </c>
       <c r="N12">
-        <v>0.9866895951362363</v>
+        <v>1.001632540579511</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9538911591466023</v>
+        <v>0.9694436804962215</v>
       </c>
       <c r="D13">
-        <v>0.983727256793032</v>
+        <v>0.9962427164729419</v>
       </c>
       <c r="E13">
-        <v>0.9689216263636963</v>
+        <v>0.981094566283877</v>
       </c>
       <c r="F13">
-        <v>0.9755312831717337</v>
+        <v>0.9923222612401861</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029856791559742</v>
+        <v>1.033098553858068</v>
       </c>
       <c r="J13">
-        <v>0.9856834539736093</v>
+        <v>1.000502411845882</v>
       </c>
       <c r="K13">
-        <v>0.9991278941950856</v>
+        <v>1.011397978670581</v>
       </c>
       <c r="L13">
-        <v>0.9846233536332522</v>
+        <v>0.9965478684340373</v>
       </c>
       <c r="M13">
-        <v>0.9910971066911912</v>
+        <v>1.007553513888881</v>
       </c>
       <c r="N13">
-        <v>0.9870832375377242</v>
+        <v>1.001923240029933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9555808944684953</v>
+        <v>0.9707706249703251</v>
       </c>
       <c r="D14">
-        <v>0.984988790632276</v>
+        <v>0.9972821435823395</v>
       </c>
       <c r="E14">
-        <v>0.9703379513792197</v>
+        <v>0.9821753207542472</v>
       </c>
       <c r="F14">
-        <v>0.9770804434530379</v>
+        <v>0.9935538176669436</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03046080194438</v>
+        <v>1.033503365268825</v>
       </c>
       <c r="J14">
-        <v>0.9869643609710886</v>
+        <v>1.001449518984266</v>
       </c>
       <c r="K14">
-        <v>1.000216808295654</v>
+        <v>1.01227253376706</v>
       </c>
       <c r="L14">
-        <v>0.9858595377032724</v>
+        <v>0.9974588211620296</v>
       </c>
       <c r="M14">
-        <v>0.9924654870262744</v>
+        <v>1.008615462062268</v>
       </c>
       <c r="N14">
-        <v>0.9883659635700622</v>
+        <v>1.002871692169089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9566149827881304</v>
+        <v>0.9715839412057863</v>
       </c>
       <c r="D15">
-        <v>0.9857610582864335</v>
+        <v>0.9979194115657715</v>
       </c>
       <c r="E15">
-        <v>0.9712050185148106</v>
+        <v>0.98283799548296</v>
       </c>
       <c r="F15">
-        <v>0.9780288668261332</v>
+        <v>0.9943089333868674</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030830139977313</v>
+        <v>1.033751250979982</v>
       </c>
       <c r="J15">
-        <v>0.9877482397901406</v>
+        <v>1.002030003261497</v>
       </c>
       <c r="K15">
-        <v>1.000883137820625</v>
+        <v>1.012808525210062</v>
       </c>
       <c r="L15">
-        <v>0.9866161133514646</v>
+        <v>0.9980172118614828</v>
       </c>
       <c r="M15">
-        <v>0.993303063743853</v>
+        <v>1.009266449433913</v>
       </c>
       <c r="N15">
-        <v>0.9891509555869492</v>
+        <v>1.003453000800577</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.962530835767365</v>
+        <v>0.9762547242418121</v>
       </c>
       <c r="D16">
-        <v>0.9901823362324826</v>
+        <v>1.001581732114497</v>
       </c>
       <c r="E16">
-        <v>0.9761697205151695</v>
+        <v>0.98664739203858</v>
       </c>
       <c r="F16">
-        <v>0.9834599306087257</v>
+        <v>0.9986493717266488</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032938334512674</v>
+        <v>1.03517123680141</v>
       </c>
       <c r="J16">
-        <v>0.9922323472717924</v>
+        <v>1.005363268431067</v>
       </c>
       <c r="K16">
-        <v>1.004693936874633</v>
+        <v>1.015885892545101</v>
       </c>
       <c r="L16">
-        <v>0.9909450056968717</v>
+        <v>1.001224590295091</v>
       </c>
       <c r="M16">
-        <v>0.9980968063711499</v>
+        <v>1.01300630548736</v>
       </c>
       <c r="N16">
-        <v>0.9936414310155595</v>
+        <v>1.006790999589018</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9661551915143973</v>
+        <v>0.9791310598937261</v>
       </c>
       <c r="D17">
-        <v>0.9928936589961112</v>
+        <v>1.003839153053147</v>
       </c>
       <c r="E17">
-        <v>0.9792149655261704</v>
+        <v>0.9889964245532297</v>
       </c>
       <c r="F17">
-        <v>0.9867916919028533</v>
+        <v>1.00132557081301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034225660599049</v>
+        <v>1.036042460060588</v>
       </c>
       <c r="J17">
-        <v>0.9949791138069943</v>
+        <v>1.007415515557952</v>
       </c>
       <c r="K17">
-        <v>1.007027446060265</v>
+        <v>1.017780201202092</v>
       </c>
       <c r="L17">
-        <v>0.9935975181103917</v>
+        <v>1.003200176820467</v>
       </c>
       <c r="M17">
-        <v>1.001035343078084</v>
+        <v>1.015310397822623</v>
       </c>
       <c r="N17">
-        <v>0.9963920982742996</v>
+        <v>1.008846161142219</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9682396123734984</v>
+        <v>0.9807902555993724</v>
       </c>
       <c r="D18">
-        <v>0.9944538365126929</v>
+        <v>1.005142040069388</v>
       </c>
       <c r="E18">
-        <v>0.9809675579303179</v>
+        <v>0.9903525376261106</v>
       </c>
       <c r="F18">
-        <v>0.9887093441222334</v>
+        <v>1.002870459466729</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034964441652358</v>
+        <v>1.036543830765115</v>
       </c>
       <c r="J18">
-        <v>0.9965586161295732</v>
+        <v>1.008599156109216</v>
       </c>
       <c r="K18">
-        <v>1.008368995657242</v>
+        <v>1.018872601598973</v>
       </c>
       <c r="L18">
-        <v>0.995123107365268</v>
+        <v>1.004339903020674</v>
       </c>
       <c r="M18">
-        <v>1.002725857225019</v>
+        <v>1.016639828312244</v>
       </c>
       <c r="N18">
-        <v>0.9979738436713479</v>
+        <v>1.010031482598831</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9689454650074363</v>
+        <v>0.9813529262872827</v>
       </c>
       <c r="D19">
-        <v>0.9949823005933803</v>
+        <v>1.005583993910464</v>
       </c>
       <c r="E19">
-        <v>0.9815612442144506</v>
+        <v>0.9908126067481219</v>
       </c>
       <c r="F19">
-        <v>0.9893589718796708</v>
+        <v>1.003394555420674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035214344826209</v>
+        <v>1.036713652592098</v>
       </c>
       <c r="J19">
-        <v>0.9970934478521668</v>
+        <v>1.009000521030976</v>
       </c>
       <c r="K19">
-        <v>1.008823199962634</v>
+        <v>1.019243001457143</v>
       </c>
       <c r="L19">
-        <v>0.9956397315291262</v>
+        <v>1.004726427330979</v>
       </c>
       <c r="M19">
-        <v>1.003298401551914</v>
+        <v>1.017090720202897</v>
       </c>
       <c r="N19">
-        <v>0.9985094349163338</v>
+        <v>1.010433417504817</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9657694284532939</v>
+        <v>0.978824388854414</v>
       </c>
       <c r="D20">
-        <v>0.9926049849311318</v>
+        <v>1.003598395166053</v>
       </c>
       <c r="E20">
-        <v>0.9788907117140986</v>
+        <v>0.9887458597764223</v>
       </c>
       <c r="F20">
-        <v>0.9864369130730946</v>
+        <v>1.001040118613769</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034088805583942</v>
+        <v>1.035949694266747</v>
       </c>
       <c r="J20">
-        <v>0.9946867782252053</v>
+        <v>1.007196726244706</v>
       </c>
       <c r="K20">
-        <v>1.006779125179156</v>
+        <v>1.017578264870356</v>
       </c>
       <c r="L20">
-        <v>0.9933151838593466</v>
+        <v>1.002989529010548</v>
       </c>
       <c r="M20">
-        <v>1.000722520603783</v>
+        <v>1.015064703412948</v>
       </c>
       <c r="N20">
-        <v>0.9960993475424534</v>
+        <v>1.008627061123053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9550847807424471</v>
+        <v>0.9703807647323467</v>
       </c>
       <c r="D21">
-        <v>0.9846183498667267</v>
+        <v>0.9969767192862911</v>
       </c>
       <c r="E21">
-        <v>0.9699220486992606</v>
+        <v>0.9818577384763354</v>
       </c>
       <c r="F21">
-        <v>0.9766255264527635</v>
+        <v>0.9931919270601716</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030283525444423</v>
+        <v>1.033384478953872</v>
       </c>
       <c r="J21">
-        <v>0.9865882835891467</v>
+        <v>1.001171260170828</v>
       </c>
       <c r="K21">
-        <v>0.9998971118845672</v>
+        <v>1.012015595914258</v>
       </c>
       <c r="L21">
-        <v>0.9854965772222973</v>
+        <v>0.9971911707450241</v>
       </c>
       <c r="M21">
-        <v>0.9920636922841526</v>
+        <v>1.008303438675111</v>
       </c>
       <c r="N21">
-        <v>0.9879893521151011</v>
+        <v>1.00259303819622</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480647380400583</v>
+        <v>0.9648879723511464</v>
       </c>
       <c r="D22">
-        <v>0.9793810404873919</v>
+        <v>0.9926769220467818</v>
       </c>
       <c r="E22">
-        <v>0.9640426889540907</v>
+        <v>0.9773880129789619</v>
       </c>
       <c r="F22">
-        <v>0.9701952887973651</v>
+        <v>0.988098132893256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027769603152255</v>
+        <v>1.031705319311067</v>
       </c>
       <c r="J22">
-        <v>0.9812666499413215</v>
+        <v>0.9972505457623554</v>
       </c>
       <c r="K22">
-        <v>0.9953723360398762</v>
+        <v>1.00839485994536</v>
       </c>
       <c r="L22">
-        <v>0.9803617822913595</v>
+        <v>0.9934211324271794</v>
       </c>
       <c r="M22">
-        <v>0.9863812434620508</v>
+        <v>1.003909113628831</v>
       </c>
       <c r="N22">
-        <v>0.9826601611370964</v>
+        <v>0.9986667559235742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9518167215604374</v>
+        <v>0.9678181278349367</v>
       </c>
       <c r="D23">
-        <v>0.982179162018492</v>
+        <v>0.9949698793496062</v>
       </c>
       <c r="E23">
-        <v>0.96718368606623</v>
+        <v>0.9797713071835098</v>
       </c>
       <c r="F23">
-        <v>0.9736304397102643</v>
+        <v>0.9908142940409951</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029114445751107</v>
+        <v>1.032602020284499</v>
       </c>
       <c r="J23">
-        <v>0.9841108986245426</v>
+        <v>0.9993421254081363</v>
       </c>
       <c r="K23">
-        <v>0.9977909013194743</v>
+        <v>1.010326507817452</v>
       </c>
       <c r="L23">
-        <v>0.9831058864301939</v>
+        <v>0.9954320534809987</v>
       </c>
       <c r="M23">
-        <v>0.9894176206730182</v>
+        <v>1.006252856473755</v>
       </c>
       <c r="N23">
-        <v>0.9855084489796873</v>
+        <v>1.000761305852359</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9659438292919034</v>
+        <v>0.9789630173556229</v>
       </c>
       <c r="D24">
-        <v>0.9927354898606813</v>
+        <v>1.003707225900498</v>
       </c>
       <c r="E24">
-        <v>0.9790373008462401</v>
+        <v>0.9888591224639657</v>
       </c>
       <c r="F24">
-        <v>0.9865973014879166</v>
+        <v>1.001169151756556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034150681719799</v>
+        <v>1.035991632093755</v>
       </c>
       <c r="J24">
-        <v>0.9948189417859823</v>
+        <v>1.007295629007506</v>
       </c>
       <c r="K24">
-        <v>1.006891390875285</v>
+        <v>1.017669549779527</v>
       </c>
       <c r="L24">
-        <v>0.9934428249752492</v>
+        <v>1.003084750511851</v>
       </c>
       <c r="M24">
-        <v>1.00086394390962</v>
+        <v>1.015175766841411</v>
       </c>
       <c r="N24">
-        <v>0.9962316987906461</v>
+        <v>1.00872610433912</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811882487276928</v>
+        <v>0.9911759509841009</v>
       </c>
       <c r="D25">
-        <v>1.004158544516996</v>
+        <v>1.013308548226415</v>
       </c>
       <c r="E25">
-        <v>0.991874490680028</v>
+        <v>0.998859121994363</v>
       </c>
       <c r="F25">
-        <v>1.000646385645708</v>
+        <v>1.012559600046036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039524778082477</v>
+        <v>1.039660315013451</v>
       </c>
       <c r="J25">
-        <v>1.006365722760496</v>
+        <v>1.016003972995744</v>
       </c>
       <c r="K25">
-        <v>1.016692645630313</v>
+        <v>1.025703720221966</v>
       </c>
       <c r="L25">
-        <v>1.004600268079054</v>
+        <v>1.011475174479186</v>
       </c>
       <c r="M25">
-        <v>1.013234675589815</v>
+        <v>1.024966023583083</v>
       </c>
       <c r="N25">
-        <v>1.007794877518578</v>
+        <v>1.017446815174682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000413037042557</v>
+        <v>1.004007982965621</v>
       </c>
       <c r="D2">
-        <v>1.020586568268061</v>
+        <v>1.019603908865995</v>
       </c>
       <c r="E2">
-        <v>1.006450960674449</v>
-      </c>
-      <c r="F2">
-        <v>1.021204695349574</v>
+        <v>1.009920830173305</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042395743523486</v>
+        <v>1.042194094840886</v>
       </c>
       <c r="J2">
-        <v>1.022581401255846</v>
+        <v>1.026069473250985</v>
       </c>
       <c r="K2">
-        <v>1.031766360402866</v>
+        <v>1.03079672240723</v>
       </c>
       <c r="L2">
-        <v>1.01782114904825</v>
-      </c>
-      <c r="M2">
-        <v>1.032376312670907</v>
+        <v>1.021243660893836</v>
       </c>
       <c r="N2">
-        <v>1.024033584137355</v>
+        <v>1.012578432968751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006860445706793</v>
+        <v>1.008063630365399</v>
       </c>
       <c r="D3">
-        <v>1.025673725539042</v>
+        <v>1.022430116328754</v>
       </c>
       <c r="E3">
-        <v>1.011764538411175</v>
-      </c>
-      <c r="F3">
-        <v>1.027254393341166</v>
+        <v>1.013126903150195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044281065751814</v>
+        <v>1.043245277477031</v>
       </c>
       <c r="J3">
-        <v>1.027165819314281</v>
+        <v>1.028336860635315</v>
       </c>
       <c r="K3">
-        <v>1.035988315790846</v>
+        <v>1.032783823404376</v>
       </c>
       <c r="L3">
-        <v>1.022249070611366</v>
-      </c>
-      <c r="M3">
-        <v>1.037550032320668</v>
+        <v>1.023594533388235</v>
       </c>
       <c r="N3">
-        <v>1.028624512595273</v>
+        <v>1.013338337844408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010921789822681</v>
+        <v>1.010637349643455</v>
       </c>
       <c r="D4">
-        <v>1.028880885123923</v>
+        <v>1.024226556188709</v>
       </c>
       <c r="E4">
-        <v>1.015117824421629</v>
-      </c>
-      <c r="F4">
-        <v>1.031071828732982</v>
+        <v>1.015167289757577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045457184239826</v>
+        <v>1.04390381686081</v>
       </c>
       <c r="J4">
-        <v>1.030050181998401</v>
+        <v>1.029772810199864</v>
       </c>
       <c r="K4">
-        <v>1.038642804322478</v>
+        <v>1.034041122976735</v>
       </c>
       <c r="L4">
-        <v>1.025037151410906</v>
-      </c>
-      <c r="M4">
-        <v>1.040809167566684</v>
+        <v>1.025086041566671</v>
       </c>
       <c r="N4">
-        <v>1.031512971405246</v>
+        <v>1.013819483251774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012604009908533</v>
+        <v>1.011707618573209</v>
       </c>
       <c r="D5">
-        <v>1.030209849021224</v>
+        <v>1.024974252540265</v>
       </c>
       <c r="E5">
-        <v>1.016508166866919</v>
-      </c>
-      <c r="F5">
-        <v>1.032654533846178</v>
+        <v>1.016017131502254</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045941524933137</v>
+        <v>1.044175583688448</v>
       </c>
       <c r="J5">
-        <v>1.031244008273193</v>
+        <v>1.030369206875121</v>
       </c>
       <c r="K5">
-        <v>1.039741029846663</v>
+        <v>1.034563036667875</v>
       </c>
       <c r="L5">
-        <v>1.02619164364336</v>
-      </c>
-      <c r="M5">
-        <v>1.042159063147436</v>
+        <v>1.025706160146687</v>
       </c>
       <c r="N5">
-        <v>1.032708493050282</v>
+        <v>1.014019290868391</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012885022192465</v>
+        <v>1.011886644758974</v>
       </c>
       <c r="D6">
-        <v>1.030431880198033</v>
+        <v>1.025099358516846</v>
       </c>
       <c r="E6">
-        <v>1.016740501735575</v>
-      </c>
-      <c r="F6">
-        <v>1.032919009171609</v>
+        <v>1.016159365055897</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046022266423704</v>
+        <v>1.04422091925019</v>
       </c>
       <c r="J6">
-        <v>1.031443381476333</v>
+        <v>1.030468923260118</v>
       </c>
       <c r="K6">
-        <v>1.039924409988754</v>
+        <v>1.034650282676985</v>
       </c>
       <c r="L6">
-        <v>1.026384478128347</v>
-      </c>
-      <c r="M6">
-        <v>1.042384556270723</v>
+        <v>1.025809880864317</v>
       </c>
       <c r="N6">
-        <v>1.032908149386239</v>
+        <v>1.014052696625733</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010944364976911</v>
+        <v>1.01065169619917</v>
       </c>
       <c r="D7">
-        <v>1.028898717571808</v>
+        <v>1.024236576251248</v>
       </c>
       <c r="E7">
-        <v>1.015136477172019</v>
-      </c>
-      <c r="F7">
-        <v>1.03109306252251</v>
+        <v>1.015178676258883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045463695213505</v>
+        <v>1.043907468067357</v>
       </c>
       <c r="J7">
-        <v>1.030066206550566</v>
+        <v>1.029780807622882</v>
       </c>
       <c r="K7">
-        <v>1.038657547471673</v>
+        <v>1.034048122749026</v>
       </c>
       <c r="L7">
-        <v>1.025052645952066</v>
-      </c>
-      <c r="M7">
-        <v>1.040827283255478</v>
+        <v>1.025094354532504</v>
       </c>
       <c r="N7">
-        <v>1.031529018714113</v>
+        <v>1.013822162698538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002615674023617</v>
+        <v>1.005389310545528</v>
       </c>
       <c r="D8">
-        <v>1.022323883089592</v>
+        <v>1.020565855454652</v>
       </c>
       <c r="E8">
-        <v>1.008264898775082</v>
-      </c>
-      <c r="F8">
-        <v>1.023270020854806</v>
+        <v>1.011011558071999</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043042211511345</v>
+        <v>1.042553889981173</v>
       </c>
       <c r="J8">
-        <v>1.024148272267378</v>
+        <v>1.02684232708684</v>
       </c>
       <c r="K8">
-        <v>1.033209720957165</v>
+        <v>1.031474272751655</v>
       </c>
       <c r="L8">
-        <v>1.019334068600899</v>
-      </c>
-      <c r="M8">
-        <v>1.034143747025748</v>
+        <v>1.022044408422484</v>
       </c>
       <c r="N8">
-        <v>1.025602680285447</v>
+        <v>1.012837472609856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987028959727383</v>
+        <v>0.9957111243537873</v>
       </c>
       <c r="D9">
-        <v>1.010045448494841</v>
+        <v>1.013840394931076</v>
       </c>
       <c r="E9">
-        <v>0.9954587345902371</v>
-      </c>
-      <c r="F9">
-        <v>1.008686822296994</v>
+        <v>1.003395627362247</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038420660594012</v>
+        <v>1.039998241235467</v>
       </c>
       <c r="J9">
-        <v>1.013048222950563</v>
+        <v>1.021416248257632</v>
       </c>
       <c r="K9">
-        <v>1.022977620965566</v>
+        <v>1.026712842622417</v>
       </c>
       <c r="L9">
-        <v>1.008625922874679</v>
-      </c>
-      <c r="M9">
-        <v>1.02164051672696</v>
+        <v>1.016433852072986</v>
       </c>
       <c r="N9">
-        <v>1.014486867625408</v>
+        <v>1.011018432237489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9759271100973241</v>
+        <v>0.9889599737037086</v>
       </c>
       <c r="D10">
-        <v>1.001324712790324</v>
+        <v>1.009169458720512</v>
       </c>
       <c r="E10">
-        <v>0.9863799897493026</v>
-      </c>
-      <c r="F10">
-        <v>0.9983447122757607</v>
+        <v>0.9981181406300669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035071844119013</v>
+        <v>1.038172921104441</v>
       </c>
       <c r="J10">
-        <v>1.005129494822304</v>
+        <v>1.017618562338742</v>
       </c>
       <c r="K10">
-        <v>1.015670090260244</v>
+        <v>1.02337510612289</v>
       </c>
       <c r="L10">
-        <v>1.000999590517609</v>
-      </c>
-      <c r="M10">
-        <v>1.012743917908452</v>
+        <v>1.012521455960812</v>
       </c>
       <c r="N10">
-        <v>1.006556893994916</v>
+        <v>1.009744924732745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9709261231596676</v>
+        <v>0.9859593442020428</v>
       </c>
       <c r="D11">
-        <v>0.9974039726364059</v>
+        <v>1.007099033810912</v>
       </c>
       <c r="E11">
-        <v>0.9823020028140879</v>
-      </c>
-      <c r="F11">
-        <v>0.9936981729088821</v>
+        <v>0.9957814616302636</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03355077244701</v>
+        <v>1.037352040239641</v>
       </c>
       <c r="J11">
-        <v>1.001560503238229</v>
+        <v>1.015928125340934</v>
       </c>
       <c r="K11">
-        <v>1.012375012852798</v>
+        <v>1.021888303129673</v>
       </c>
       <c r="L11">
-        <v>0.9975655774246768</v>
-      </c>
-      <c r="M11">
-        <v>1.008739919095821</v>
+        <v>1.010783374326774</v>
       </c>
       <c r="N11">
-        <v>1.002982834033423</v>
+        <v>1.009178000245287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9690369839824657</v>
+        <v>0.9848325749863382</v>
       </c>
       <c r="D12">
-        <v>0.9959242141514023</v>
+        <v>1.006322480160709</v>
       </c>
       <c r="E12">
-        <v>0.9807634279021414</v>
-      </c>
-      <c r="F12">
-        <v>0.9919449077694065</v>
+        <v>0.9949054164667088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032974390114881</v>
+        <v>1.037042393208122</v>
       </c>
       <c r="J12">
-        <v>1.000212124636592</v>
+        <v>1.015293013815731</v>
       </c>
       <c r="K12">
-        <v>1.011129918594613</v>
+        <v>1.02132954564803</v>
       </c>
       <c r="L12">
-        <v>0.9962686889128025</v>
-      </c>
-      <c r="M12">
-        <v>1.0072280750388</v>
+        <v>1.010130875883991</v>
       </c>
       <c r="N12">
-        <v>1.001632540579511</v>
+        <v>1.008964995933295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9694436804962215</v>
+        <v>0.98507483273326</v>
       </c>
       <c r="D13">
-        <v>0.9962427164729419</v>
+        <v>1.006489398424096</v>
       </c>
       <c r="E13">
-        <v>0.981094566283877</v>
-      </c>
-      <c r="F13">
-        <v>0.9923222612401861</v>
+        <v>0.9950937036625361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033098553858068</v>
+        <v>1.037109030380922</v>
       </c>
       <c r="J13">
-        <v>1.000502411845882</v>
+        <v>1.01542957850578</v>
       </c>
       <c r="K13">
-        <v>1.011397978670581</v>
+        <v>1.021449699041229</v>
       </c>
       <c r="L13">
-        <v>0.9965478684340373</v>
-      </c>
-      <c r="M13">
-        <v>1.007553513888881</v>
+        <v>1.010271155975201</v>
       </c>
       <c r="N13">
-        <v>1.001923240029933</v>
+        <v>1.009010797357472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9707706249703251</v>
+        <v>0.9858664575213655</v>
       </c>
       <c r="D14">
-        <v>0.9972821435823395</v>
+        <v>1.007034998629202</v>
       </c>
       <c r="E14">
-        <v>0.9821753207542472</v>
-      </c>
-      <c r="F14">
-        <v>0.9935538176669436</v>
+        <v>0.9957092148433461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033503365268825</v>
+        <v>1.037326542232602</v>
       </c>
       <c r="J14">
-        <v>1.001449518984266</v>
+        <v>1.015875775633793</v>
       </c>
       <c r="K14">
-        <v>1.01227253376706</v>
+        <v>1.021842250019272</v>
       </c>
       <c r="L14">
-        <v>0.9974588211620296</v>
-      </c>
-      <c r="M14">
-        <v>1.008615462062268</v>
+        <v>1.01072958104172</v>
       </c>
       <c r="N14">
-        <v>1.002871692169089</v>
+        <v>1.009160443256563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9715839412057863</v>
+        <v>0.9863525687635537</v>
       </c>
       <c r="D15">
-        <v>0.9979194115657715</v>
+        <v>1.007370156691869</v>
       </c>
       <c r="E15">
-        <v>0.98283799548296</v>
-      </c>
-      <c r="F15">
-        <v>0.9943089333868674</v>
+        <v>0.996087367256541</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033751250979982</v>
+        <v>1.037459926271826</v>
       </c>
       <c r="J15">
-        <v>1.002030003261497</v>
+        <v>1.016149728158364</v>
       </c>
       <c r="K15">
-        <v>1.012808525210062</v>
+        <v>1.022083245507885</v>
       </c>
       <c r="L15">
-        <v>0.9980172118614828</v>
-      </c>
-      <c r="M15">
-        <v>1.009266449433913</v>
+        <v>1.011011108929129</v>
       </c>
       <c r="N15">
-        <v>1.003453000800577</v>
+        <v>1.00925232093308</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9762547242418121</v>
+        <v>0.9891574372892447</v>
       </c>
       <c r="D16">
-        <v>1.001581732114497</v>
+        <v>1.009305831006985</v>
       </c>
       <c r="E16">
-        <v>0.98664739203858</v>
-      </c>
-      <c r="F16">
-        <v>0.9986493717266488</v>
+        <v>0.9982721029893347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03517123680141</v>
+        <v>1.038226744771371</v>
       </c>
       <c r="J16">
-        <v>1.005363268431067</v>
+        <v>1.017729756855431</v>
       </c>
       <c r="K16">
-        <v>1.015885892545101</v>
+        <v>1.02347288399361</v>
       </c>
       <c r="L16">
-        <v>1.001224590295091</v>
-      </c>
-      <c r="M16">
-        <v>1.01300630548736</v>
+        <v>1.012635855679384</v>
       </c>
       <c r="N16">
-        <v>1.006790999589018</v>
+        <v>1.00978221524029</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9791310598937261</v>
+        <v>0.9908957519180475</v>
       </c>
       <c r="D17">
-        <v>1.003839153053147</v>
+        <v>1.010506995076469</v>
       </c>
       <c r="E17">
-        <v>0.9889964245532297</v>
-      </c>
-      <c r="F17">
-        <v>1.00132557081301</v>
+        <v>0.9996284948629441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036042460060588</v>
+        <v>1.038699478084236</v>
       </c>
       <c r="J17">
-        <v>1.007415515557952</v>
+        <v>1.018708345334087</v>
       </c>
       <c r="K17">
-        <v>1.017780201202092</v>
+        <v>1.024333272953646</v>
       </c>
       <c r="L17">
-        <v>1.003200176820467</v>
-      </c>
-      <c r="M17">
-        <v>1.015310397822623</v>
+        <v>1.013643041046942</v>
       </c>
       <c r="N17">
-        <v>1.008846161142219</v>
+        <v>1.010110391254086</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9807902555993724</v>
+        <v>0.9919022608203961</v>
       </c>
       <c r="D18">
-        <v>1.005142040069388</v>
+        <v>1.011203016212219</v>
       </c>
       <c r="E18">
-        <v>0.9903525376261106</v>
-      </c>
-      <c r="F18">
-        <v>1.002870459466729</v>
+        <v>1.000414712607528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036543830765115</v>
+        <v>1.038972282891406</v>
       </c>
       <c r="J18">
-        <v>1.008599156109216</v>
+        <v>1.019274720613796</v>
       </c>
       <c r="K18">
-        <v>1.018872601598973</v>
+        <v>1.024831132953675</v>
       </c>
       <c r="L18">
-        <v>1.004339903020674</v>
-      </c>
-      <c r="M18">
-        <v>1.016639828312244</v>
+        <v>1.014226291409362</v>
       </c>
       <c r="N18">
-        <v>1.010031482598831</v>
+        <v>1.01030032329468</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9813529262872827</v>
+        <v>0.9922442127819281</v>
       </c>
       <c r="D19">
-        <v>1.005583993910464</v>
+        <v>1.011439570794057</v>
       </c>
       <c r="E19">
-        <v>0.9908126067481219</v>
-      </c>
-      <c r="F19">
-        <v>1.003394555420674</v>
+        <v>1.000681964828704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036713652592098</v>
+        <v>1.039064809341479</v>
       </c>
       <c r="J19">
-        <v>1.009000521030976</v>
+        <v>1.01946709909735</v>
       </c>
       <c r="K19">
-        <v>1.019243001457143</v>
+        <v>1.025000220908244</v>
       </c>
       <c r="L19">
-        <v>1.004726427330979</v>
-      </c>
-      <c r="M19">
-        <v>1.017090720202897</v>
+        <v>1.014424456760299</v>
       </c>
       <c r="N19">
-        <v>1.010433417504817</v>
+        <v>1.010364835744181</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.978824388854414</v>
+        <v>0.9907100188536203</v>
       </c>
       <c r="D20">
-        <v>1.003598395166053</v>
+        <v>1.010378599284285</v>
       </c>
       <c r="E20">
-        <v>0.9887458597764223</v>
-      </c>
-      <c r="F20">
-        <v>1.001040118613769</v>
+        <v>0.9994834806477916</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035949694266747</v>
+        <v>1.038649062670296</v>
       </c>
       <c r="J20">
-        <v>1.007196726244706</v>
+        <v>1.018603811184893</v>
       </c>
       <c r="K20">
-        <v>1.017578264870356</v>
+        <v>1.024241375868255</v>
       </c>
       <c r="L20">
-        <v>1.002989529010548</v>
-      </c>
-      <c r="M20">
-        <v>1.015064703412948</v>
+        <v>1.01353541851019</v>
       </c>
       <c r="N20">
-        <v>1.008627061123053</v>
+        <v>1.010075335608911</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9703807647323467</v>
+        <v>0.9856336854491772</v>
       </c>
       <c r="D21">
-        <v>0.9969767192862911</v>
+        <v>1.006874542763351</v>
       </c>
       <c r="E21">
-        <v>0.9818577384763354</v>
-      </c>
-      <c r="F21">
-        <v>0.9931919270601716</v>
+        <v>0.9955281887207548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033384478953872</v>
+        <v>1.037262622402566</v>
       </c>
       <c r="J21">
-        <v>1.001171260170828</v>
+        <v>1.015744583135922</v>
       </c>
       <c r="K21">
-        <v>1.012015595914258</v>
+        <v>1.021726834867638</v>
       </c>
       <c r="L21">
-        <v>0.9971911707450241</v>
-      </c>
-      <c r="M21">
-        <v>1.008303438675111</v>
+        <v>1.01059477909961</v>
       </c>
       <c r="N21">
-        <v>1.00259303819622</v>
+        <v>1.009116443969844</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9648879723511464</v>
+        <v>0.9823710810785343</v>
       </c>
       <c r="D22">
-        <v>0.9926769220467818</v>
+        <v>1.004627809417094</v>
       </c>
       <c r="E22">
-        <v>0.9773880129789619</v>
-      </c>
-      <c r="F22">
-        <v>0.988098132893256</v>
+        <v>0.9929942885077453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031705319311067</v>
+        <v>1.036363432786285</v>
       </c>
       <c r="J22">
-        <v>0.9972505457623554</v>
+        <v>1.013905010378598</v>
       </c>
       <c r="K22">
-        <v>1.00839485994536</v>
+        <v>1.020108142605575</v>
       </c>
       <c r="L22">
-        <v>0.9934211324271794</v>
-      </c>
-      <c r="M22">
-        <v>1.003909113628831</v>
+        <v>1.008705819260047</v>
       </c>
       <c r="N22">
-        <v>0.9986667559235742</v>
+        <v>1.008499477935255</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9678181278349367</v>
+        <v>0.9841075754845271</v>
       </c>
       <c r="D23">
-        <v>0.9949698793496062</v>
+        <v>1.005823086741231</v>
       </c>
       <c r="E23">
-        <v>0.9797713071835098</v>
-      </c>
-      <c r="F23">
-        <v>0.9908142940409951</v>
+        <v>0.9943421436146556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032602020284499</v>
+        <v>1.036842768323712</v>
       </c>
       <c r="J23">
-        <v>0.9993421254081363</v>
+        <v>1.014884274105371</v>
       </c>
       <c r="K23">
-        <v>1.010326507817452</v>
+        <v>1.020969903684698</v>
       </c>
       <c r="L23">
-        <v>0.9954320534809987</v>
-      </c>
-      <c r="M23">
-        <v>1.006252856473755</v>
+        <v>1.00971109124893</v>
       </c>
       <c r="N23">
-        <v>1.000761305852359</v>
+        <v>1.008827911063547</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9789630173556229</v>
+        <v>0.9907939665203671</v>
       </c>
       <c r="D24">
-        <v>1.003707225900498</v>
+        <v>1.010436630001575</v>
       </c>
       <c r="E24">
-        <v>0.9888591224639657</v>
-      </c>
-      <c r="F24">
-        <v>1.001169151756556</v>
+        <v>0.9995490215780811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035991632093755</v>
+        <v>1.038671852277144</v>
       </c>
       <c r="J24">
-        <v>1.007295629007506</v>
+        <v>1.018651059301558</v>
       </c>
       <c r="K24">
-        <v>1.017669549779527</v>
+        <v>1.024282912518699</v>
       </c>
       <c r="L24">
-        <v>1.003084750511851</v>
-      </c>
-      <c r="M24">
-        <v>1.015175766841411</v>
+        <v>1.013584061534151</v>
       </c>
       <c r="N24">
-        <v>1.00872610433912</v>
+        <v>1.010091180335823</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9911759509841009</v>
+        <v>0.9982638269812324</v>
       </c>
       <c r="D25">
-        <v>1.013308548226415</v>
+        <v>1.01561099643742</v>
       </c>
       <c r="E25">
-        <v>0.998859121994363</v>
-      </c>
-      <c r="F25">
-        <v>1.012559600046036</v>
+        <v>1.005398533997646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039660315013451</v>
+        <v>1.040679828596471</v>
       </c>
       <c r="J25">
-        <v>1.016003972995744</v>
+        <v>1.022849761876324</v>
       </c>
       <c r="K25">
-        <v>1.025703720221966</v>
+        <v>1.027971710657607</v>
       </c>
       <c r="L25">
-        <v>1.011475174479186</v>
-      </c>
-      <c r="M25">
-        <v>1.024966023583083</v>
+        <v>1.017913618770984</v>
       </c>
       <c r="N25">
-        <v>1.017446815174682</v>
+        <v>1.011499077532749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004007982965621</v>
+        <v>1.028588243299612</v>
       </c>
       <c r="D2">
-        <v>1.019603908865995</v>
+        <v>1.03202567865613</v>
       </c>
       <c r="E2">
-        <v>1.009920830173305</v>
+        <v>1.028535837031138</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042194094840886</v>
+        <v>1.033665697739855</v>
       </c>
       <c r="J2">
-        <v>1.026069473250985</v>
+        <v>1.033739728823548</v>
       </c>
       <c r="K2">
-        <v>1.03079672240723</v>
+        <v>1.034832099464689</v>
       </c>
       <c r="L2">
-        <v>1.021243660893836</v>
+        <v>1.031352369682536</v>
       </c>
       <c r="N2">
-        <v>1.012578432968751</v>
+        <v>1.015255433175407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008063630365399</v>
+        <v>1.029442182218056</v>
       </c>
       <c r="D3">
-        <v>1.022430116328754</v>
+        <v>1.032640011072422</v>
       </c>
       <c r="E3">
-        <v>1.013126903150195</v>
+        <v>1.029258410206078</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043245277477031</v>
+        <v>1.033838246318672</v>
       </c>
       <c r="J3">
-        <v>1.028336860635315</v>
+        <v>1.034234829934326</v>
       </c>
       <c r="K3">
-        <v>1.032783823404376</v>
+        <v>1.035255638743594</v>
       </c>
       <c r="L3">
-        <v>1.023594533388235</v>
+        <v>1.031883129228256</v>
       </c>
       <c r="N3">
-        <v>1.013338337844408</v>
+        <v>1.015420450910096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010637349643455</v>
+        <v>1.029995186491516</v>
       </c>
       <c r="D4">
-        <v>1.024226556188709</v>
+        <v>1.03303786940265</v>
       </c>
       <c r="E4">
-        <v>1.015167289757577</v>
+        <v>1.029726739329396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04390381686081</v>
+        <v>1.033948912898976</v>
       </c>
       <c r="J4">
-        <v>1.029772810199864</v>
+        <v>1.034554998357283</v>
       </c>
       <c r="K4">
-        <v>1.034041122976735</v>
+        <v>1.035529348177799</v>
       </c>
       <c r="L4">
-        <v>1.025086041566671</v>
+        <v>1.032226672669674</v>
       </c>
       <c r="N4">
-        <v>1.013819483251774</v>
+        <v>1.015527128435241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011707618573209</v>
+        <v>1.030227775376865</v>
       </c>
       <c r="D5">
-        <v>1.024974252540265</v>
+        <v>1.033205209743408</v>
       </c>
       <c r="E5">
-        <v>1.016017131502254</v>
+        <v>1.029923808907969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044175583688448</v>
+        <v>1.033995200912261</v>
       </c>
       <c r="J5">
-        <v>1.030369206875121</v>
+        <v>1.034689549196025</v>
       </c>
       <c r="K5">
-        <v>1.034563036667875</v>
+        <v>1.035644330914744</v>
       </c>
       <c r="L5">
-        <v>1.025706160146687</v>
+        <v>1.032371122491462</v>
       </c>
       <c r="N5">
-        <v>1.014019290868391</v>
+        <v>1.015571951271209</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011886644758974</v>
+        <v>1.030266834239132</v>
       </c>
       <c r="D6">
-        <v>1.025099358516846</v>
+        <v>1.033233311605742</v>
       </c>
       <c r="E6">
-        <v>1.016159365055897</v>
+        <v>1.029956908497128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04422091925019</v>
+        <v>1.034002959001967</v>
       </c>
       <c r="J6">
-        <v>1.030468923260118</v>
+        <v>1.034712138024549</v>
       </c>
       <c r="K6">
-        <v>1.034650282676985</v>
+        <v>1.035663632019774</v>
       </c>
       <c r="L6">
-        <v>1.025809880864317</v>
+        <v>1.03239537762978</v>
       </c>
       <c r="N6">
-        <v>1.014052696625733</v>
+        <v>1.015579475778665</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01065169619917</v>
+        <v>1.029998293941426</v>
       </c>
       <c r="D7">
-        <v>1.024236576251248</v>
+        <v>1.033040105097521</v>
       </c>
       <c r="E7">
-        <v>1.015178676258883</v>
+        <v>1.0297293718619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043907468067357</v>
+        <v>1.033949532330685</v>
       </c>
       <c r="J7">
-        <v>1.029780807622882</v>
+        <v>1.034556796422229</v>
       </c>
       <c r="K7">
-        <v>1.034048122749026</v>
+        <v>1.03553088491712</v>
       </c>
       <c r="L7">
-        <v>1.025094354532504</v>
+        <v>1.032228602722022</v>
       </c>
       <c r="N7">
-        <v>1.013822162698538</v>
+        <v>1.015527727456604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005389310545528</v>
+        <v>1.02887674213054</v>
       </c>
       <c r="D8">
-        <v>1.020565855454652</v>
+        <v>1.032233222888044</v>
       </c>
       <c r="E8">
-        <v>1.011011558071999</v>
+        <v>1.028779872297904</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042553889981173</v>
+        <v>1.03372421465593</v>
       </c>
       <c r="J8">
-        <v>1.02684232708684</v>
+        <v>1.033907090202616</v>
       </c>
       <c r="K8">
-        <v>1.031474272751655</v>
+        <v>1.034975308043718</v>
       </c>
       <c r="L8">
-        <v>1.022044408422484</v>
+        <v>1.031531719492103</v>
       </c>
       <c r="N8">
-        <v>1.012837472609856</v>
+        <v>1.015311222117693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9957111243537873</v>
+        <v>1.026903928611014</v>
       </c>
       <c r="D9">
-        <v>1.013840394931076</v>
+        <v>1.030814104315396</v>
       </c>
       <c r="E9">
-        <v>1.003395627362247</v>
+        <v>1.027112753080928</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039998241235467</v>
+        <v>1.033319670464405</v>
       </c>
       <c r="J9">
-        <v>1.021416248257632</v>
+        <v>1.032760786184878</v>
       </c>
       <c r="K9">
-        <v>1.026712842622417</v>
+        <v>1.033993692476339</v>
       </c>
       <c r="L9">
-        <v>1.016433852072986</v>
+        <v>1.030304597388618</v>
       </c>
       <c r="N9">
-        <v>1.011018432237489</v>
+        <v>1.014928966573706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9889599737037086</v>
+        <v>1.025591166220983</v>
       </c>
       <c r="D10">
-        <v>1.009169458720512</v>
+        <v>1.029869949069431</v>
       </c>
       <c r="E10">
-        <v>0.9981181406300669</v>
+        <v>1.026005492303557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038172921104441</v>
+        <v>1.033044967998966</v>
       </c>
       <c r="J10">
-        <v>1.017618562338742</v>
+        <v>1.031995691037698</v>
       </c>
       <c r="K10">
-        <v>1.02337510612289</v>
+        <v>1.033337593524155</v>
       </c>
       <c r="L10">
-        <v>1.012521455960812</v>
+        <v>1.02948718430143</v>
       </c>
       <c r="N10">
-        <v>1.009744924732745</v>
+        <v>1.014673655617424</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9859593442020428</v>
+        <v>1.02502332488399</v>
       </c>
       <c r="D11">
-        <v>1.007099033810912</v>
+        <v>1.029461597055437</v>
       </c>
       <c r="E11">
-        <v>0.9957814616302636</v>
+        <v>1.025527042969119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037352040239641</v>
+        <v>1.032924839771834</v>
       </c>
       <c r="J11">
-        <v>1.015928125340934</v>
+        <v>1.031664200427896</v>
       </c>
       <c r="K11">
-        <v>1.021888303129673</v>
+        <v>1.033053110014338</v>
       </c>
       <c r="L11">
-        <v>1.010783374326774</v>
+        <v>1.029133410740969</v>
       </c>
       <c r="N11">
-        <v>1.009178000245287</v>
+        <v>1.014562996482377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9848325749863382</v>
+        <v>1.024812493993153</v>
       </c>
       <c r="D12">
-        <v>1.006322480160709</v>
+        <v>1.02930998978737</v>
       </c>
       <c r="E12">
-        <v>0.9949054164667088</v>
+        <v>1.025349477885327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037042393208122</v>
+        <v>1.032880042140984</v>
       </c>
       <c r="J12">
-        <v>1.015293013815731</v>
+        <v>1.031541041358925</v>
       </c>
       <c r="K12">
-        <v>1.02132954564803</v>
+        <v>1.03294738303513</v>
       </c>
       <c r="L12">
-        <v>1.010130875883991</v>
+        <v>1.029002030635086</v>
       </c>
       <c r="N12">
-        <v>1.008964995933295</v>
+        <v>1.014521877014438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.98507483273326</v>
+        <v>1.024857713807917</v>
       </c>
       <c r="D13">
-        <v>1.006489398424096</v>
+        <v>1.029342506736684</v>
       </c>
       <c r="E13">
-        <v>0.9950937036625361</v>
+        <v>1.025387559278027</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037109030380922</v>
+        <v>1.032889659368431</v>
       </c>
       <c r="J13">
-        <v>1.01542957850578</v>
+        <v>1.031567460675739</v>
       </c>
       <c r="K13">
-        <v>1.021449699041229</v>
+        <v>1.032970064397289</v>
       </c>
       <c r="L13">
-        <v>1.010271155975201</v>
+        <v>1.029030210863686</v>
       </c>
       <c r="N13">
-        <v>1.009010797357472</v>
+        <v>1.014530697984718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9858664575213655</v>
+        <v>1.025005895678522</v>
       </c>
       <c r="D14">
-        <v>1.007034998629202</v>
+        <v>1.029449063655257</v>
       </c>
       <c r="E14">
-        <v>0.9957092148433461</v>
+        <v>1.025512362266704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037326542232602</v>
+        <v>1.032921140385652</v>
       </c>
       <c r="J14">
-        <v>1.015875775633793</v>
+        <v>1.031654020638986</v>
       </c>
       <c r="K14">
-        <v>1.021842250019272</v>
+        <v>1.033044371747863</v>
       </c>
       <c r="L14">
-        <v>1.01072958104172</v>
+        <v>1.029122550258853</v>
       </c>
       <c r="N14">
-        <v>1.009160443256563</v>
+        <v>1.014559597852732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9863525687635537</v>
+        <v>1.025097207478728</v>
       </c>
       <c r="D15">
-        <v>1.007370156691869</v>
+        <v>1.029514726594668</v>
       </c>
       <c r="E15">
-        <v>0.996087367256541</v>
+        <v>1.025589277741724</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037459926271826</v>
+        <v>1.03294051349016</v>
       </c>
       <c r="J15">
-        <v>1.016149728158364</v>
+        <v>1.031707349324106</v>
       </c>
       <c r="K15">
-        <v>1.022083245507885</v>
+        <v>1.033090147423847</v>
       </c>
       <c r="L15">
-        <v>1.011011108929129</v>
+        <v>1.02917944724531</v>
       </c>
       <c r="N15">
-        <v>1.00925232093308</v>
+        <v>1.01457740194349</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9891574372892447</v>
+        <v>1.025628864612069</v>
       </c>
       <c r="D16">
-        <v>1.009305831006985</v>
+        <v>1.029897060169673</v>
       </c>
       <c r="E16">
-        <v>0.9982721029893347</v>
+        <v>1.026037266670745</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038226744771371</v>
+        <v>1.033052915703644</v>
       </c>
       <c r="J16">
-        <v>1.017729756855431</v>
+        <v>1.032017686884533</v>
       </c>
       <c r="K16">
-        <v>1.02347288399361</v>
+        <v>1.033356465678965</v>
       </c>
       <c r="L16">
-        <v>1.012635855679384</v>
+        <v>1.029510666820318</v>
       </c>
       <c r="N16">
-        <v>1.00978221524029</v>
+        <v>1.014680997467573</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9908957519180475</v>
+        <v>1.025962519029555</v>
       </c>
       <c r="D17">
-        <v>1.010506995076469</v>
+        <v>1.030137015890328</v>
       </c>
       <c r="E17">
-        <v>0.9996284948629441</v>
+        <v>1.026318547781247</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038699478084236</v>
+        <v>1.03312310712255</v>
       </c>
       <c r="J17">
-        <v>1.018708345334087</v>
+        <v>1.032212300948301</v>
       </c>
       <c r="K17">
-        <v>1.024333272953646</v>
+        <v>1.03352341696774</v>
       </c>
       <c r="L17">
-        <v>1.013643041046942</v>
+        <v>1.029718479031562</v>
       </c>
       <c r="N17">
-        <v>1.010110391254086</v>
+        <v>1.014745951663981</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9919022608203961</v>
+        <v>1.026157191163502</v>
       </c>
       <c r="D18">
-        <v>1.011203016212219</v>
+        <v>1.030277023566978</v>
       </c>
       <c r="E18">
-        <v>1.000414712607528</v>
+        <v>1.026482710842654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038972282891406</v>
+        <v>1.033163934668606</v>
       </c>
       <c r="J18">
-        <v>1.019274720613796</v>
+        <v>1.032325796719373</v>
       </c>
       <c r="K18">
-        <v>1.024831132953675</v>
+        <v>1.033620759280478</v>
       </c>
       <c r="L18">
-        <v>1.014226291409362</v>
+        <v>1.029839708854589</v>
       </c>
       <c r="N18">
-        <v>1.01030032329468</v>
+        <v>1.014783827915352</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9922442127819281</v>
+        <v>1.026223578979445</v>
       </c>
       <c r="D19">
-        <v>1.011439570794057</v>
+        <v>1.030324770242656</v>
       </c>
       <c r="E19">
-        <v>1.000681964828704</v>
+        <v>1.026538702526377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039064809341479</v>
+        <v>1.033177836463681</v>
       </c>
       <c r="J19">
-        <v>1.01946709909735</v>
+        <v>1.032364492529171</v>
       </c>
       <c r="K19">
-        <v>1.025000220908244</v>
+        <v>1.033653944087845</v>
       </c>
       <c r="L19">
-        <v>1.014424456760299</v>
+        <v>1.029881047844923</v>
       </c>
       <c r="N19">
-        <v>1.010364835744181</v>
+        <v>1.014796740954774</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9907100188536203</v>
+        <v>1.025926715145308</v>
       </c>
       <c r="D20">
-        <v>1.010378599284285</v>
+        <v>1.03011126618703</v>
       </c>
       <c r="E20">
-        <v>0.9994834806477916</v>
+        <v>1.026288358980795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038649062670296</v>
+        <v>1.033115588026213</v>
       </c>
       <c r="J20">
-        <v>1.018603811184893</v>
+        <v>1.032191422690335</v>
       </c>
       <c r="K20">
-        <v>1.024241375868255</v>
+        <v>1.033505508549673</v>
       </c>
       <c r="L20">
-        <v>1.01353541851019</v>
+        <v>1.029696181034062</v>
       </c>
       <c r="N20">
-        <v>1.010075335608911</v>
+        <v>1.014738983769194</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9856336854491772</v>
+        <v>1.024962257296053</v>
       </c>
       <c r="D21">
-        <v>1.006874542763351</v>
+        <v>1.029417683273709</v>
       </c>
       <c r="E21">
-        <v>0.9955281887207548</v>
+        <v>1.025475606678611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037262622402566</v>
+        <v>1.032911874882057</v>
       </c>
       <c r="J21">
-        <v>1.015744583135922</v>
+        <v>1.031628531669355</v>
       </c>
       <c r="K21">
-        <v>1.021726834867638</v>
+        <v>1.033022491652762</v>
       </c>
       <c r="L21">
-        <v>1.01059477909961</v>
+        <v>1.029095357848268</v>
       </c>
       <c r="N21">
-        <v>1.009116443969844</v>
+        <v>1.01455108799268</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9823710810785343</v>
+        <v>1.024356389674189</v>
       </c>
       <c r="D22">
-        <v>1.004627809417094</v>
+        <v>1.028982022516613</v>
       </c>
       <c r="E22">
-        <v>0.9929942885077453</v>
+        <v>1.024965479099662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036363432786285</v>
+        <v>1.032782770578668</v>
       </c>
       <c r="J22">
-        <v>1.013905010378598</v>
+        <v>1.031274454333288</v>
       </c>
       <c r="K22">
-        <v>1.020108142605575</v>
+        <v>1.032718469777914</v>
       </c>
       <c r="L22">
-        <v>1.008705819260047</v>
+        <v>1.028717754192158</v>
       </c>
       <c r="N22">
-        <v>1.008499477935255</v>
+        <v>1.014432859631366</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9841075754845271</v>
+        <v>1.024677521266839</v>
       </c>
       <c r="D23">
-        <v>1.005823086741231</v>
+        <v>1.029212933918602</v>
       </c>
       <c r="E23">
-        <v>0.9943421436146556</v>
+        <v>1.025235823179305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036842768323712</v>
+        <v>1.032851307843285</v>
       </c>
       <c r="J23">
-        <v>1.014884274105371</v>
+        <v>1.031462172688433</v>
       </c>
       <c r="K23">
-        <v>1.020969903684698</v>
+        <v>1.032879668401987</v>
       </c>
       <c r="L23">
-        <v>1.00971109124893</v>
+        <v>1.028917913633439</v>
       </c>
       <c r="N23">
-        <v>1.008827911063547</v>
+        <v>1.014495543179203</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9907939665203671</v>
+        <v>1.025942893202999</v>
       </c>
       <c r="D24">
-        <v>1.010436630001575</v>
+        <v>1.030122901228999</v>
       </c>
       <c r="E24">
-        <v>0.9995490215780811</v>
+        <v>1.026301999702164</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038671852277144</v>
+        <v>1.033118985934266</v>
       </c>
       <c r="J24">
-        <v>1.018651059301558</v>
+        <v>1.032200856736259</v>
       </c>
       <c r="K24">
-        <v>1.024282912518699</v>
+        <v>1.033513600709106</v>
       </c>
       <c r="L24">
-        <v>1.013584061534151</v>
+        <v>1.029706256488583</v>
       </c>
       <c r="N24">
-        <v>1.010091180335823</v>
+        <v>1.014742132293209</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9982638269812324</v>
+        <v>1.027413523609534</v>
       </c>
       <c r="D25">
-        <v>1.01561099643742</v>
+        <v>1.031180648790175</v>
       </c>
       <c r="E25">
-        <v>1.005398533997646</v>
+        <v>1.027543019163745</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040679828596471</v>
+        <v>1.033425140172777</v>
       </c>
       <c r="J25">
-        <v>1.022849761876324</v>
+        <v>1.033057296029411</v>
       </c>
       <c r="K25">
-        <v>1.027971710657607</v>
+        <v>1.034247766500302</v>
       </c>
       <c r="L25">
-        <v>1.017913618770984</v>
+        <v>1.030621725916716</v>
       </c>
       <c r="N25">
-        <v>1.011499077532749</v>
+        <v>1.015027874323378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028588243299612</v>
+        <v>1.004007982965622</v>
       </c>
       <c r="D2">
-        <v>1.03202567865613</v>
+        <v>1.019603908865996</v>
       </c>
       <c r="E2">
-        <v>1.028535837031138</v>
+        <v>1.009920830173306</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033665697739855</v>
+        <v>1.042194094840886</v>
       </c>
       <c r="J2">
-        <v>1.033739728823548</v>
+        <v>1.026069473250986</v>
       </c>
       <c r="K2">
-        <v>1.034832099464689</v>
+        <v>1.03079672240723</v>
       </c>
       <c r="L2">
-        <v>1.031352369682536</v>
+        <v>1.021243660893836</v>
       </c>
       <c r="N2">
-        <v>1.015255433175407</v>
+        <v>1.012578432968751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029442182218056</v>
+        <v>1.008063630365399</v>
       </c>
       <c r="D3">
-        <v>1.032640011072422</v>
+        <v>1.022430116328753</v>
       </c>
       <c r="E3">
-        <v>1.029258410206078</v>
+        <v>1.013126903150194</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033838246318672</v>
+        <v>1.043245277477031</v>
       </c>
       <c r="J3">
-        <v>1.034234829934326</v>
+        <v>1.028336860635315</v>
       </c>
       <c r="K3">
-        <v>1.035255638743594</v>
+        <v>1.032783823404376</v>
       </c>
       <c r="L3">
-        <v>1.031883129228256</v>
+        <v>1.023594533388234</v>
       </c>
       <c r="N3">
-        <v>1.015420450910096</v>
+        <v>1.013338337844408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029995186491516</v>
+        <v>1.010637349643453</v>
       </c>
       <c r="D4">
-        <v>1.03303786940265</v>
+        <v>1.024226556188708</v>
       </c>
       <c r="E4">
-        <v>1.029726739329396</v>
+        <v>1.015167289757577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033948912898976</v>
+        <v>1.043903816860809</v>
       </c>
       <c r="J4">
-        <v>1.034554998357283</v>
+        <v>1.029772810199863</v>
       </c>
       <c r="K4">
-        <v>1.035529348177799</v>
+        <v>1.034041122976734</v>
       </c>
       <c r="L4">
-        <v>1.032226672669674</v>
+        <v>1.02508604156667</v>
       </c>
       <c r="N4">
-        <v>1.015527128435241</v>
+        <v>1.013819483251774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030227775376865</v>
+        <v>1.011707618573208</v>
       </c>
       <c r="D5">
-        <v>1.033205209743408</v>
+        <v>1.024974252540264</v>
       </c>
       <c r="E5">
-        <v>1.029923808907969</v>
+        <v>1.016017131502253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033995200912261</v>
+        <v>1.044175583688448</v>
       </c>
       <c r="J5">
-        <v>1.034689549196025</v>
+        <v>1.03036920687512</v>
       </c>
       <c r="K5">
-        <v>1.035644330914744</v>
+        <v>1.034563036667874</v>
       </c>
       <c r="L5">
-        <v>1.032371122491462</v>
+        <v>1.025706160146687</v>
       </c>
       <c r="N5">
-        <v>1.015571951271209</v>
+        <v>1.01401929086839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030266834239132</v>
+        <v>1.011886644758974</v>
       </c>
       <c r="D6">
-        <v>1.033233311605742</v>
+        <v>1.025099358516845</v>
       </c>
       <c r="E6">
-        <v>1.029956908497128</v>
+        <v>1.016159365055896</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034002959001967</v>
+        <v>1.044220919250189</v>
       </c>
       <c r="J6">
-        <v>1.034712138024549</v>
+        <v>1.030468923260117</v>
       </c>
       <c r="K6">
-        <v>1.035663632019774</v>
+        <v>1.034650282676985</v>
       </c>
       <c r="L6">
-        <v>1.03239537762978</v>
+        <v>1.025809880864316</v>
       </c>
       <c r="N6">
-        <v>1.015579475778665</v>
+        <v>1.014052696625732</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029998293941426</v>
+        <v>1.010651696199169</v>
       </c>
       <c r="D7">
-        <v>1.033040105097521</v>
+        <v>1.024236576251248</v>
       </c>
       <c r="E7">
-        <v>1.0297293718619</v>
+        <v>1.015178676258883</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033949532330685</v>
+        <v>1.043907468067357</v>
       </c>
       <c r="J7">
-        <v>1.034556796422229</v>
+        <v>1.029780807622882</v>
       </c>
       <c r="K7">
-        <v>1.03553088491712</v>
+        <v>1.034048122749026</v>
       </c>
       <c r="L7">
-        <v>1.032228602722022</v>
+        <v>1.025094354532504</v>
       </c>
       <c r="N7">
-        <v>1.015527727456604</v>
+        <v>1.013822162698538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02887674213054</v>
+        <v>1.005389310545528</v>
       </c>
       <c r="D8">
-        <v>1.032233222888044</v>
+        <v>1.020565855454652</v>
       </c>
       <c r="E8">
-        <v>1.028779872297904</v>
+        <v>1.011011558071999</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03372421465593</v>
+        <v>1.042553889981172</v>
       </c>
       <c r="J8">
-        <v>1.033907090202616</v>
+        <v>1.026842327086839</v>
       </c>
       <c r="K8">
-        <v>1.034975308043718</v>
+        <v>1.031474272751655</v>
       </c>
       <c r="L8">
-        <v>1.031531719492103</v>
+        <v>1.022044408422484</v>
       </c>
       <c r="N8">
-        <v>1.015311222117693</v>
+        <v>1.012837472609856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026903928611014</v>
+        <v>0.9957111243537877</v>
       </c>
       <c r="D9">
-        <v>1.030814104315396</v>
+        <v>1.013840394931076</v>
       </c>
       <c r="E9">
-        <v>1.027112753080928</v>
+        <v>1.003395627362247</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033319670464405</v>
+        <v>1.039998241235467</v>
       </c>
       <c r="J9">
-        <v>1.032760786184878</v>
+        <v>1.021416248257633</v>
       </c>
       <c r="K9">
-        <v>1.033993692476339</v>
+        <v>1.026712842622417</v>
       </c>
       <c r="L9">
-        <v>1.030304597388618</v>
+        <v>1.016433852072986</v>
       </c>
       <c r="N9">
-        <v>1.014928966573706</v>
+        <v>1.011018432237489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025591166220983</v>
+        <v>0.9889599737037079</v>
       </c>
       <c r="D10">
-        <v>1.029869949069431</v>
+        <v>1.009169458720512</v>
       </c>
       <c r="E10">
-        <v>1.026005492303557</v>
+        <v>0.9981181406300663</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033044967998966</v>
+        <v>1.038172921104441</v>
       </c>
       <c r="J10">
-        <v>1.031995691037698</v>
+        <v>1.017618562338741</v>
       </c>
       <c r="K10">
-        <v>1.033337593524155</v>
+        <v>1.02337510612289</v>
       </c>
       <c r="L10">
-        <v>1.02948718430143</v>
+        <v>1.012521455960811</v>
       </c>
       <c r="N10">
-        <v>1.014673655617424</v>
+        <v>1.009744924732745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02502332488399</v>
+        <v>0.9859593442020425</v>
       </c>
       <c r="D11">
-        <v>1.029461597055437</v>
+        <v>1.007099033810911</v>
       </c>
       <c r="E11">
-        <v>1.025527042969119</v>
+        <v>0.9957814616302633</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032924839771834</v>
+        <v>1.037352040239641</v>
       </c>
       <c r="J11">
-        <v>1.031664200427896</v>
+        <v>1.015928125340933</v>
       </c>
       <c r="K11">
-        <v>1.033053110014338</v>
+        <v>1.021888303129673</v>
       </c>
       <c r="L11">
-        <v>1.029133410740969</v>
+        <v>1.010783374326774</v>
       </c>
       <c r="N11">
-        <v>1.014562996482377</v>
+        <v>1.009178000245287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024812493993153</v>
+        <v>0.9848325749863386</v>
       </c>
       <c r="D12">
-        <v>1.02930998978737</v>
+        <v>1.006322480160709</v>
       </c>
       <c r="E12">
-        <v>1.025349477885327</v>
+        <v>0.9949054164667089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032880042140984</v>
+        <v>1.037042393208122</v>
       </c>
       <c r="J12">
-        <v>1.031541041358925</v>
+        <v>1.015293013815732</v>
       </c>
       <c r="K12">
-        <v>1.03294738303513</v>
+        <v>1.02132954564803</v>
       </c>
       <c r="L12">
-        <v>1.029002030635086</v>
+        <v>1.010130875883991</v>
       </c>
       <c r="N12">
-        <v>1.014521877014438</v>
+        <v>1.008964995933295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024857713807917</v>
+        <v>0.9850748327332597</v>
       </c>
       <c r="D13">
-        <v>1.029342506736684</v>
+        <v>1.006489398424096</v>
       </c>
       <c r="E13">
-        <v>1.025387559278027</v>
+        <v>0.9950937036625359</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032889659368431</v>
+        <v>1.037109030380922</v>
       </c>
       <c r="J13">
-        <v>1.031567460675739</v>
+        <v>1.01542957850578</v>
       </c>
       <c r="K13">
-        <v>1.032970064397289</v>
+        <v>1.021449699041228</v>
       </c>
       <c r="L13">
-        <v>1.029030210863686</v>
+        <v>1.010271155975201</v>
       </c>
       <c r="N13">
-        <v>1.014530697984718</v>
+        <v>1.009010797357471</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025005895678522</v>
+        <v>0.985866457521366</v>
       </c>
       <c r="D14">
-        <v>1.029449063655257</v>
+        <v>1.007034998629202</v>
       </c>
       <c r="E14">
-        <v>1.025512362266704</v>
+        <v>0.9957092148433465</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032921140385652</v>
+        <v>1.037326542232602</v>
       </c>
       <c r="J14">
-        <v>1.031654020638986</v>
+        <v>1.015875775633794</v>
       </c>
       <c r="K14">
-        <v>1.033044371747863</v>
+        <v>1.021842250019272</v>
       </c>
       <c r="L14">
-        <v>1.029122550258853</v>
+        <v>1.01072958104172</v>
       </c>
       <c r="N14">
-        <v>1.014559597852732</v>
+        <v>1.009160443256563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025097207478728</v>
+        <v>0.9863525687635527</v>
       </c>
       <c r="D15">
-        <v>1.029514726594668</v>
+        <v>1.007370156691868</v>
       </c>
       <c r="E15">
-        <v>1.025589277741724</v>
+        <v>0.9960873672565403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03294051349016</v>
+        <v>1.037459926271826</v>
       </c>
       <c r="J15">
-        <v>1.031707349324106</v>
+        <v>1.016149728158363</v>
       </c>
       <c r="K15">
-        <v>1.033090147423847</v>
+        <v>1.022083245507884</v>
       </c>
       <c r="L15">
-        <v>1.02917944724531</v>
+        <v>1.011011108929128</v>
       </c>
       <c r="N15">
-        <v>1.01457740194349</v>
+        <v>1.009252320933079</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025628864612069</v>
+        <v>0.9891574372892437</v>
       </c>
       <c r="D16">
-        <v>1.029897060169673</v>
+        <v>1.009305831006984</v>
       </c>
       <c r="E16">
-        <v>1.026037266670745</v>
+        <v>0.9982721029893332</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033052915703644</v>
+        <v>1.03822674477137</v>
       </c>
       <c r="J16">
-        <v>1.032017686884533</v>
+        <v>1.01772975685543</v>
       </c>
       <c r="K16">
-        <v>1.033356465678965</v>
+        <v>1.023472883993608</v>
       </c>
       <c r="L16">
-        <v>1.029510666820318</v>
+        <v>1.012635855679383</v>
       </c>
       <c r="N16">
-        <v>1.014680997467573</v>
+        <v>1.00978221524029</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025962519029555</v>
+        <v>0.9908957519180474</v>
       </c>
       <c r="D17">
-        <v>1.030137015890328</v>
+        <v>1.010506995076469</v>
       </c>
       <c r="E17">
-        <v>1.026318547781247</v>
+        <v>0.9996284948629439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03312310712255</v>
+        <v>1.038699478084236</v>
       </c>
       <c r="J17">
-        <v>1.032212300948301</v>
+        <v>1.018708345334086</v>
       </c>
       <c r="K17">
-        <v>1.03352341696774</v>
+        <v>1.024333272953646</v>
       </c>
       <c r="L17">
-        <v>1.029718479031562</v>
+        <v>1.013643041046942</v>
       </c>
       <c r="N17">
-        <v>1.014745951663981</v>
+        <v>1.010110391254086</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026157191163502</v>
+        <v>0.9919022608203966</v>
       </c>
       <c r="D18">
-        <v>1.030277023566978</v>
+        <v>1.011203016212219</v>
       </c>
       <c r="E18">
-        <v>1.026482710842654</v>
+        <v>1.000414712607528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033163934668606</v>
+        <v>1.038972282891406</v>
       </c>
       <c r="J18">
-        <v>1.032325796719373</v>
+        <v>1.019274720613797</v>
       </c>
       <c r="K18">
-        <v>1.033620759280478</v>
+        <v>1.024831132953675</v>
       </c>
       <c r="L18">
-        <v>1.029839708854589</v>
+        <v>1.014226291409362</v>
       </c>
       <c r="N18">
-        <v>1.014783827915352</v>
+        <v>1.01030032329468</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026223578979445</v>
+        <v>0.9922442127819284</v>
       </c>
       <c r="D19">
-        <v>1.030324770242656</v>
+        <v>1.011439570794058</v>
       </c>
       <c r="E19">
-        <v>1.026538702526377</v>
+        <v>1.000681964828704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033177836463681</v>
+        <v>1.039064809341479</v>
       </c>
       <c r="J19">
-        <v>1.032364492529171</v>
+        <v>1.01946709909735</v>
       </c>
       <c r="K19">
-        <v>1.033653944087845</v>
+        <v>1.025000220908244</v>
       </c>
       <c r="L19">
-        <v>1.029881047844923</v>
+        <v>1.0144244567603</v>
       </c>
       <c r="N19">
-        <v>1.014796740954774</v>
+        <v>1.010364835744181</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025926715145308</v>
+        <v>0.9907100188536192</v>
       </c>
       <c r="D20">
-        <v>1.03011126618703</v>
+        <v>1.010378599284284</v>
       </c>
       <c r="E20">
-        <v>1.026288358980795</v>
+        <v>0.9994834806477906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033115588026213</v>
+        <v>1.038649062670295</v>
       </c>
       <c r="J20">
-        <v>1.032191422690335</v>
+        <v>1.018603811184892</v>
       </c>
       <c r="K20">
-        <v>1.033505508549673</v>
+        <v>1.024241375868254</v>
       </c>
       <c r="L20">
-        <v>1.029696181034062</v>
+        <v>1.013535418510189</v>
       </c>
       <c r="N20">
-        <v>1.014738983769194</v>
+        <v>1.01007533560891</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024962257296053</v>
+        <v>0.9856336854491775</v>
       </c>
       <c r="D21">
-        <v>1.029417683273709</v>
+        <v>1.006874542763352</v>
       </c>
       <c r="E21">
-        <v>1.025475606678611</v>
+        <v>0.9955281887207549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032911874882057</v>
+        <v>1.037262622402566</v>
       </c>
       <c r="J21">
-        <v>1.031628531669355</v>
+        <v>1.015744583135922</v>
       </c>
       <c r="K21">
-        <v>1.033022491652762</v>
+        <v>1.021726834867638</v>
       </c>
       <c r="L21">
-        <v>1.029095357848268</v>
+        <v>1.01059477909961</v>
       </c>
       <c r="N21">
-        <v>1.01455108799268</v>
+        <v>1.009116443969844</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024356389674189</v>
+        <v>0.982371081078534</v>
       </c>
       <c r="D22">
-        <v>1.028982022516613</v>
+        <v>1.004627809417093</v>
       </c>
       <c r="E22">
-        <v>1.024965479099662</v>
+        <v>0.9929942885077447</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032782770578668</v>
+        <v>1.036363432786284</v>
       </c>
       <c r="J22">
-        <v>1.031274454333288</v>
+        <v>1.013905010378597</v>
       </c>
       <c r="K22">
-        <v>1.032718469777914</v>
+        <v>1.020108142605574</v>
       </c>
       <c r="L22">
-        <v>1.028717754192158</v>
+        <v>1.008705819260046</v>
       </c>
       <c r="N22">
-        <v>1.014432859631366</v>
+        <v>1.008499477935254</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024677521266839</v>
+        <v>0.9841075754845269</v>
       </c>
       <c r="D23">
-        <v>1.029212933918602</v>
+        <v>1.005823086741231</v>
       </c>
       <c r="E23">
-        <v>1.025235823179305</v>
+        <v>0.9943421436146551</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032851307843285</v>
+        <v>1.036842768323712</v>
       </c>
       <c r="J23">
-        <v>1.031462172688433</v>
+        <v>1.014884274105371</v>
       </c>
       <c r="K23">
-        <v>1.032879668401987</v>
+        <v>1.020969903684697</v>
       </c>
       <c r="L23">
-        <v>1.028917913633439</v>
+        <v>1.00971109124893</v>
       </c>
       <c r="N23">
-        <v>1.014495543179203</v>
+        <v>1.008827911063547</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025942893202999</v>
+        <v>0.9907939665203672</v>
       </c>
       <c r="D24">
-        <v>1.030122901228999</v>
+        <v>1.010436630001575</v>
       </c>
       <c r="E24">
-        <v>1.026301999702164</v>
+        <v>0.999549021578081</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033118985934266</v>
+        <v>1.038671852277144</v>
       </c>
       <c r="J24">
-        <v>1.032200856736259</v>
+        <v>1.018651059301558</v>
       </c>
       <c r="K24">
-        <v>1.033513600709106</v>
+        <v>1.024282912518699</v>
       </c>
       <c r="L24">
-        <v>1.029706256488583</v>
+        <v>1.013584061534152</v>
       </c>
       <c r="N24">
-        <v>1.014742132293209</v>
+        <v>1.010091180335823</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027413523609534</v>
+        <v>0.9982638269812323</v>
       </c>
       <c r="D25">
-        <v>1.031180648790175</v>
+        <v>1.01561099643742</v>
       </c>
       <c r="E25">
-        <v>1.027543019163745</v>
+        <v>1.005398533997645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033425140172777</v>
+        <v>1.040679828596471</v>
       </c>
       <c r="J25">
-        <v>1.033057296029411</v>
+        <v>1.022849761876324</v>
       </c>
       <c r="K25">
-        <v>1.034247766500302</v>
+        <v>1.027971710657607</v>
       </c>
       <c r="L25">
-        <v>1.030621725916716</v>
+        <v>1.017913618770983</v>
       </c>
       <c r="N25">
-        <v>1.015027874323378</v>
+        <v>1.011499077532749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004007982965622</v>
+        <v>1.006977440173067</v>
       </c>
       <c r="D2">
-        <v>1.019603908865996</v>
+        <v>1.028398416367992</v>
       </c>
       <c r="E2">
-        <v>1.009920830173306</v>
+        <v>1.012497148512203</v>
+      </c>
+      <c r="F2">
+        <v>1.033769913103861</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042194094840886</v>
+        <v>1.045660595064121</v>
       </c>
       <c r="J2">
-        <v>1.026069473250986</v>
+        <v>1.028951441366117</v>
       </c>
       <c r="K2">
-        <v>1.03079672240723</v>
+        <v>1.039475800593403</v>
       </c>
       <c r="L2">
-        <v>1.021243660893836</v>
+        <v>1.023785081041946</v>
+      </c>
+      <c r="M2">
+        <v>1.044778003452087</v>
       </c>
       <c r="N2">
-        <v>1.012578432968751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013561331609259</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044011168260937</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03898308685777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008063630365399</v>
+        <v>1.010155641095421</v>
       </c>
       <c r="D3">
-        <v>1.022430116328753</v>
+        <v>1.030493476927244</v>
       </c>
       <c r="E3">
-        <v>1.013126903150194</v>
+        <v>1.014947121159722</v>
+      </c>
+      <c r="F3">
+        <v>1.036094160948439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043245277477031</v>
+        <v>1.046294581004913</v>
       </c>
       <c r="J3">
-        <v>1.028336860635315</v>
+        <v>1.030373230336454</v>
       </c>
       <c r="K3">
-        <v>1.032783823404376</v>
+        <v>1.040750506317616</v>
       </c>
       <c r="L3">
-        <v>1.023594533388234</v>
+        <v>1.02539225728287</v>
+      </c>
+      <c r="M3">
+        <v>1.046285135580954</v>
       </c>
       <c r="N3">
-        <v>1.013338337844408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014041629482596</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045203955544286</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039881748559496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010637349643453</v>
+        <v>1.012180556173674</v>
       </c>
       <c r="D4">
-        <v>1.024226556188708</v>
+        <v>1.031832665622132</v>
       </c>
       <c r="E4">
-        <v>1.015167289757577</v>
+        <v>1.016513706261924</v>
+      </c>
+      <c r="F4">
+        <v>1.037582336159821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043903816860809</v>
+        <v>1.046691470990263</v>
       </c>
       <c r="J4">
-        <v>1.029772810199863</v>
+        <v>1.03127773207391</v>
       </c>
       <c r="K4">
-        <v>1.034041122976734</v>
+        <v>1.041561498622683</v>
       </c>
       <c r="L4">
-        <v>1.02508604156667</v>
+        <v>1.026416828584723</v>
+      </c>
+      <c r="M4">
+        <v>1.047247386006257</v>
       </c>
       <c r="N4">
-        <v>1.013819483251774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014347156928318</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04596550691614</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040456083226872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011707618573208</v>
+        <v>1.013026915808649</v>
       </c>
       <c r="D5">
-        <v>1.024974252540264</v>
+        <v>1.032395367369224</v>
       </c>
       <c r="E5">
-        <v>1.016017131502253</v>
+        <v>1.017170124652601</v>
+      </c>
+      <c r="F5">
+        <v>1.038206843977173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044175583688448</v>
+        <v>1.04685697126208</v>
       </c>
       <c r="J5">
-        <v>1.03036920687512</v>
+        <v>1.031656746132376</v>
       </c>
       <c r="K5">
-        <v>1.034563036667874</v>
+        <v>1.041902714718248</v>
       </c>
       <c r="L5">
-        <v>1.025706160146687</v>
+        <v>1.026846127488022</v>
+      </c>
+      <c r="M5">
+        <v>1.047651414333069</v>
       </c>
       <c r="N5">
-        <v>1.01401929086839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014475369838088</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046285265777334</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040704514610506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011886644758974</v>
+        <v>1.013171591414433</v>
       </c>
       <c r="D6">
-        <v>1.025099358516845</v>
+        <v>1.032493965341917</v>
       </c>
       <c r="E6">
-        <v>1.016159365055896</v>
+        <v>1.017282769976879</v>
+      </c>
+      <c r="F6">
+        <v>1.038314616590302</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044220919250189</v>
+        <v>1.046886776052143</v>
       </c>
       <c r="J6">
-        <v>1.030468923260117</v>
+        <v>1.031723096733112</v>
       </c>
       <c r="K6">
-        <v>1.034650282676985</v>
+        <v>1.041964112416892</v>
       </c>
       <c r="L6">
-        <v>1.025809880864316</v>
+        <v>1.026920652631441</v>
+      </c>
+      <c r="M6">
+        <v>1.047722171431717</v>
       </c>
       <c r="N6">
-        <v>1.014052696625732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014498051158917</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046341264829893</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04075666385794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010651696199169</v>
+        <v>1.012199953492606</v>
       </c>
       <c r="D7">
-        <v>1.024236576251248</v>
+        <v>1.031851850921141</v>
       </c>
       <c r="E7">
-        <v>1.015178676258883</v>
+        <v>1.016529717792944</v>
+      </c>
+      <c r="F7">
+        <v>1.037599094839629</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043907468067357</v>
+        <v>1.04669960878568</v>
       </c>
       <c r="J7">
-        <v>1.029780807622882</v>
+        <v>1.031290670701323</v>
       </c>
       <c r="K7">
-        <v>1.034048122749026</v>
+        <v>1.041577591958602</v>
       </c>
       <c r="L7">
-        <v>1.025094354532504</v>
+        <v>1.026429718663888</v>
+      </c>
+      <c r="M7">
+        <v>1.047261103597425</v>
       </c>
       <c r="N7">
-        <v>1.013822162698538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014352177502421</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045976363388224</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04048755499431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005389310545528</v>
+        <v>1.008068276978045</v>
       </c>
       <c r="D8">
-        <v>1.020565855454652</v>
+        <v>1.029124357297203</v>
       </c>
       <c r="E8">
-        <v>1.011011558071999</v>
+        <v>1.013338117533645</v>
+      </c>
+      <c r="F8">
+        <v>1.034569149231799</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042553889981172</v>
+        <v>1.045885004793542</v>
       </c>
       <c r="J8">
-        <v>1.026842327086839</v>
+        <v>1.029444996624351</v>
       </c>
       <c r="K8">
-        <v>1.031474272751655</v>
+        <v>1.039923758894776</v>
       </c>
       <c r="L8">
-        <v>1.022044408422484</v>
+        <v>1.024340396473241</v>
+      </c>
+      <c r="M8">
+        <v>1.045300366374859</v>
       </c>
       <c r="N8">
-        <v>1.012837472609856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013728905543155</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044424581372872</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039322719059706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957111243537877</v>
+        <v>1.000523973754645</v>
       </c>
       <c r="D9">
-        <v>1.013840394931076</v>
+        <v>1.024169897852354</v>
       </c>
       <c r="E9">
-        <v>1.003395627362247</v>
+        <v>1.007554437560712</v>
+      </c>
+      <c r="F9">
+        <v>1.029091971947758</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039998241235467</v>
+        <v>1.044336329548837</v>
       </c>
       <c r="J9">
-        <v>1.021416248257633</v>
+        <v>1.02605824271636</v>
       </c>
       <c r="K9">
-        <v>1.026712842622417</v>
+        <v>1.036882639430165</v>
       </c>
       <c r="L9">
-        <v>1.016433852072986</v>
+        <v>1.020526126891596</v>
+      </c>
+      <c r="M9">
+        <v>1.041730048948558</v>
       </c>
       <c r="N9">
-        <v>1.011018432237489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01258399761211</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04159892430972</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037169280397191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889599737037079</v>
+        <v>0.9953550098929556</v>
       </c>
       <c r="D10">
-        <v>1.009169458720512</v>
+        <v>1.020834165318386</v>
       </c>
       <c r="E10">
-        <v>0.9981181406300663</v>
+        <v>1.003629739122034</v>
+      </c>
+      <c r="F10">
+        <v>1.025489020500726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038172921104441</v>
+        <v>1.043261949537684</v>
       </c>
       <c r="J10">
-        <v>1.017618562338741</v>
+        <v>1.023754140050174</v>
       </c>
       <c r="K10">
-        <v>1.02337510612289</v>
+        <v>1.034837172655012</v>
       </c>
       <c r="L10">
-        <v>1.012521455960811</v>
+        <v>1.017933765316582</v>
+      </c>
+      <c r="M10">
+        <v>1.039412823989364</v>
       </c>
       <c r="N10">
-        <v>1.009744924732745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011808241756303</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039816351585145</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035739815555807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9859593442020425</v>
+        <v>0.9933957224030219</v>
       </c>
       <c r="D11">
-        <v>1.007099033810911</v>
+        <v>1.019827140173344</v>
       </c>
       <c r="E11">
-        <v>0.9957814616302633</v>
+        <v>1.002193441329114</v>
+      </c>
+      <c r="F11">
+        <v>1.02498648374691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037352040239641</v>
+        <v>1.043011903879767</v>
       </c>
       <c r="J11">
-        <v>1.015928125340933</v>
+        <v>1.023045851577904</v>
       </c>
       <c r="K11">
-        <v>1.021888303129673</v>
+        <v>1.034384587827693</v>
       </c>
       <c r="L11">
-        <v>1.010783374326774</v>
+        <v>1.017074110769657</v>
+      </c>
+      <c r="M11">
+        <v>1.039452089291388</v>
       </c>
       <c r="N11">
-        <v>1.009178000245287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011595725074782</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040282726579655</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035452646075756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9848325749863386</v>
+        <v>0.9927707191043986</v>
       </c>
       <c r="D12">
-        <v>1.006322480160709</v>
+        <v>1.019602964711756</v>
       </c>
       <c r="E12">
-        <v>0.9949054164667089</v>
+        <v>1.001754483936683</v>
+      </c>
+      <c r="F12">
+        <v>1.025176252506396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037042393208122</v>
+        <v>1.042994841968405</v>
       </c>
       <c r="J12">
-        <v>1.015293013815732</v>
+        <v>1.022884217963624</v>
       </c>
       <c r="K12">
-        <v>1.02132954564803</v>
+        <v>1.034363998790879</v>
       </c>
       <c r="L12">
-        <v>1.010130875883991</v>
+        <v>1.016848147820015</v>
+      </c>
+      <c r="M12">
+        <v>1.039836504056884</v>
       </c>
       <c r="N12">
-        <v>1.008964995933295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011562028983498</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04091246237133</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035438088980078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9850748327332597</v>
+        <v>0.9931401331516649</v>
       </c>
       <c r="D13">
-        <v>1.006489398424096</v>
+        <v>1.019981225629786</v>
       </c>
       <c r="E13">
-        <v>0.9950937036625359</v>
+        <v>1.002059989182032</v>
+      </c>
+      <c r="F13">
+        <v>1.025936465838889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037109030380922</v>
+        <v>1.043167320419252</v>
       </c>
       <c r="J13">
-        <v>1.01542957850578</v>
+        <v>1.023143984755607</v>
       </c>
       <c r="K13">
-        <v>1.021449699041228</v>
+        <v>1.034692590550634</v>
       </c>
       <c r="L13">
-        <v>1.010271155975201</v>
+        <v>1.0171039275265</v>
+      </c>
+      <c r="M13">
+        <v>1.040540655909716</v>
       </c>
       <c r="N13">
-        <v>1.009010797357471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011668457027339</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041745300880999</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035667923116785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.985866457521366</v>
+        <v>0.9938494475982402</v>
       </c>
       <c r="D14">
-        <v>1.007034998629202</v>
+        <v>1.02051859677339</v>
       </c>
       <c r="E14">
-        <v>0.9957092148433465</v>
+        <v>1.002611293527651</v>
+      </c>
+      <c r="F14">
+        <v>1.026724830654192</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037326542232602</v>
+        <v>1.043373463873455</v>
       </c>
       <c r="J14">
-        <v>1.015875775633794</v>
+        <v>1.023516377576716</v>
       </c>
       <c r="K14">
-        <v>1.021842250019272</v>
+        <v>1.035080141364291</v>
       </c>
       <c r="L14">
-        <v>1.01072958104172</v>
+        <v>1.017501036581405</v>
+      </c>
+      <c r="M14">
+        <v>1.041176093204301</v>
       </c>
       <c r="N14">
-        <v>1.009160443256563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011806428311846</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042420576471293</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035943357153709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9863525687635527</v>
+        <v>0.9942427220426581</v>
       </c>
       <c r="D15">
-        <v>1.007370156691868</v>
+        <v>1.020789650780124</v>
       </c>
       <c r="E15">
-        <v>0.9960873672565403</v>
+        <v>1.00291177544375</v>
+      </c>
+      <c r="F15">
+        <v>1.027060897625636</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037459926271826</v>
+        <v>1.043469387134925</v>
       </c>
       <c r="J15">
-        <v>1.016149728158363</v>
+        <v>1.023704435730353</v>
       </c>
       <c r="K15">
-        <v>1.022083245507884</v>
+        <v>1.035260061882056</v>
       </c>
       <c r="L15">
-        <v>1.011011108929128</v>
+        <v>1.017707364556515</v>
+      </c>
+      <c r="M15">
+        <v>1.041420716218376</v>
       </c>
       <c r="N15">
-        <v>1.009252320933079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011872661090174</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042651391846189</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036076432131595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9891574372892437</v>
+        <v>0.9963532416672681</v>
       </c>
       <c r="D16">
-        <v>1.009305831006984</v>
+        <v>1.022131584717851</v>
       </c>
       <c r="E16">
-        <v>0.9982721029893332</v>
+        <v>1.004503636477703</v>
+      </c>
+      <c r="F16">
+        <v>1.028478723997422</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03822674477137</v>
+        <v>1.043904000961317</v>
       </c>
       <c r="J16">
-        <v>1.01772975685543</v>
+        <v>1.024635046273078</v>
       </c>
       <c r="K16">
-        <v>1.023472883993608</v>
+        <v>1.036076883082886</v>
       </c>
       <c r="L16">
-        <v>1.012635855679383</v>
+        <v>1.018755609516249</v>
+      </c>
+      <c r="M16">
+        <v>1.042316918448398</v>
       </c>
       <c r="N16">
-        <v>1.00978221524029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012182618648858</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043321104801255</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036657118746558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9908957519180474</v>
+        <v>0.9976044091508829</v>
       </c>
       <c r="D17">
-        <v>1.010506995076469</v>
+        <v>1.022882398444244</v>
       </c>
       <c r="E17">
-        <v>0.9996284948629439</v>
+        <v>1.005440384105436</v>
+      </c>
+      <c r="F17">
+        <v>1.029149321831737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038699478084236</v>
+        <v>1.044128214344728</v>
       </c>
       <c r="J17">
-        <v>1.018708345334086</v>
+        <v>1.025154958675192</v>
       </c>
       <c r="K17">
-        <v>1.024333272953646</v>
+        <v>1.036500768986903</v>
       </c>
       <c r="L17">
-        <v>1.013643041046942</v>
+        <v>1.019353691389708</v>
+      </c>
+      <c r="M17">
+        <v>1.042664858122382</v>
       </c>
       <c r="N17">
-        <v>1.010110391254086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012348386885611</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.0434673370524</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03695940913518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9919022608203966</v>
+        <v>0.9982233096105678</v>
       </c>
       <c r="D18">
-        <v>1.011203016212219</v>
+        <v>1.023166935857428</v>
       </c>
       <c r="E18">
-        <v>1.000414712607528</v>
+        <v>1.005888439896613</v>
+      </c>
+      <c r="F18">
+        <v>1.029175155606979</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038972282891406</v>
+        <v>1.044180231567128</v>
       </c>
       <c r="J18">
-        <v>1.019274720613797</v>
+        <v>1.025353606610567</v>
       </c>
       <c r="K18">
-        <v>1.024831132953675</v>
+        <v>1.036597410988818</v>
       </c>
       <c r="L18">
-        <v>1.014226291409362</v>
+        <v>1.019606299448693</v>
+      </c>
+      <c r="M18">
+        <v>1.042508599069485</v>
       </c>
       <c r="N18">
-        <v>1.01030032329468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012399176449075</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043106610097628</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037016113182947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9922442127819284</v>
+        <v>0.9982730104196029</v>
       </c>
       <c r="D19">
-        <v>1.011439570794058</v>
+        <v>1.023034764589597</v>
       </c>
       <c r="E19">
-        <v>1.000681964828704</v>
+        <v>1.005896910732648</v>
+      </c>
+      <c r="F19">
+        <v>1.028609734370923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039064809341479</v>
+        <v>1.044081662341341</v>
       </c>
       <c r="J19">
-        <v>1.01946709909735</v>
+        <v>1.025266410660826</v>
       </c>
       <c r="K19">
-        <v>1.025000220908244</v>
+        <v>1.03640491353407</v>
       </c>
       <c r="L19">
-        <v>1.0144244567603</v>
+        <v>1.01955062477537</v>
+      </c>
+      <c r="M19">
+        <v>1.041890250347679</v>
       </c>
       <c r="N19">
-        <v>1.010364835744181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012350122684039</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042292871879345</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03688640138041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9907100188536192</v>
+        <v>0.9967135914643036</v>
       </c>
       <c r="D20">
-        <v>1.010378599284284</v>
+        <v>1.021726088734584</v>
       </c>
       <c r="E20">
-        <v>0.9994834806477906</v>
+        <v>1.004661948960534</v>
+      </c>
+      <c r="F20">
+        <v>1.026444695882592</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038649062670295</v>
+        <v>1.043558454643975</v>
       </c>
       <c r="J20">
-        <v>1.018603811184892</v>
+        <v>1.024371789117316</v>
       </c>
       <c r="K20">
-        <v>1.024241375868254</v>
+        <v>1.035397374050063</v>
       </c>
       <c r="L20">
-        <v>1.013535418510189</v>
+        <v>1.01862331597368</v>
+      </c>
+      <c r="M20">
+        <v>1.040037956770045</v>
       </c>
       <c r="N20">
-        <v>1.01007533560891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012018225632755</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040300545302477</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036177950977313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9856336854491775</v>
+        <v>0.992780759728782</v>
       </c>
       <c r="D21">
-        <v>1.006874542763352</v>
+        <v>1.019146306814718</v>
       </c>
       <c r="E21">
-        <v>0.9955281887207549</v>
+        <v>1.001678970434549</v>
+      </c>
+      <c r="F21">
+        <v>1.023550896026439</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037262622402566</v>
+        <v>1.042695833932194</v>
       </c>
       <c r="J21">
-        <v>1.015744583135922</v>
+        <v>1.022583446333589</v>
       </c>
       <c r="K21">
-        <v>1.021726834867638</v>
+        <v>1.033773804128002</v>
       </c>
       <c r="L21">
-        <v>1.01059477909961</v>
+        <v>1.01662860386959</v>
+      </c>
+      <c r="M21">
+        <v>1.038099416388323</v>
       </c>
       <c r="N21">
-        <v>1.009116443969844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011411254381882</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038725520712797</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035033248153253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.982371081078534</v>
+        <v>0.9902772147613337</v>
       </c>
       <c r="D22">
-        <v>1.004627809417093</v>
+        <v>1.017519483335451</v>
       </c>
       <c r="E22">
-        <v>0.9929942885077447</v>
+        <v>0.9997889023160663</v>
+      </c>
+      <c r="F22">
+        <v>1.02176978210627</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036363432786284</v>
+        <v>1.042145718330182</v>
       </c>
       <c r="J22">
-        <v>1.013905010378597</v>
+        <v>1.021450162779354</v>
       </c>
       <c r="K22">
-        <v>1.020108142605574</v>
+        <v>1.032751685915861</v>
       </c>
       <c r="L22">
-        <v>1.008705819260046</v>
+        <v>1.01536454225303</v>
+      </c>
+      <c r="M22">
+        <v>1.036921969321507</v>
       </c>
       <c r="N22">
-        <v>1.008499477935254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011027283040651</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037793647396431</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034297062319358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9841075754845269</v>
+        <v>0.9916008376238312</v>
       </c>
       <c r="D23">
-        <v>1.005823086741231</v>
+        <v>1.018373403330811</v>
       </c>
       <c r="E23">
-        <v>0.9943421436146551</v>
+        <v>1.000786379452751</v>
+      </c>
+      <c r="F23">
+        <v>1.022708325005677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036842768323712</v>
+        <v>1.042433408162236</v>
       </c>
       <c r="J23">
-        <v>1.014884274105371</v>
+        <v>1.022045538523791</v>
       </c>
       <c r="K23">
-        <v>1.020969903684697</v>
+        <v>1.033284866950229</v>
       </c>
       <c r="L23">
-        <v>1.00971109124893</v>
+        <v>1.016029823384959</v>
+      </c>
+      <c r="M23">
+        <v>1.037540243767714</v>
       </c>
       <c r="N23">
-        <v>1.008827911063547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011228300204748</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038282971845204</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03466441197234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9907939665203672</v>
+        <v>0.9967353178870771</v>
       </c>
       <c r="D24">
-        <v>1.010436630001575</v>
+        <v>1.021707145820036</v>
       </c>
       <c r="E24">
-        <v>0.999549021578081</v>
+        <v>1.004672686694618</v>
+      </c>
+      <c r="F24">
+        <v>1.026372068154389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038671852277144</v>
+        <v>1.043541325165573</v>
       </c>
       <c r="J24">
-        <v>1.018651059301558</v>
+        <v>1.024359620843421</v>
       </c>
       <c r="K24">
-        <v>1.024282912518699</v>
+        <v>1.035363489666996</v>
       </c>
       <c r="L24">
-        <v>1.013584061534152</v>
+        <v>1.018618238628785</v>
+      </c>
+      <c r="M24">
+        <v>1.039951365193823</v>
       </c>
       <c r="N24">
-        <v>1.010091180335823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012010780027918</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040191216145558</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036126599264494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9982638269812323</v>
+        <v>1.002518327610023</v>
       </c>
       <c r="D25">
-        <v>1.01561099643742</v>
+        <v>1.025484978277452</v>
       </c>
       <c r="E25">
-        <v>1.005398533997645</v>
+        <v>1.009079528859005</v>
+      </c>
+      <c r="F25">
+        <v>1.030536535214513</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040679828596471</v>
+        <v>1.044758629192167</v>
       </c>
       <c r="J25">
-        <v>1.022849761876324</v>
+        <v>1.026961236197701</v>
       </c>
       <c r="K25">
-        <v>1.027971710657607</v>
+        <v>1.03770014712888</v>
       </c>
       <c r="L25">
-        <v>1.017913618770983</v>
+        <v>1.02153851314262</v>
+      </c>
+      <c r="M25">
+        <v>1.042678608735127</v>
       </c>
       <c r="N25">
-        <v>1.011499077532749</v>
+        <v>1.012890387009881</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042349644250422</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037775875274095</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006977440173067</v>
+        <v>1.006686369690974</v>
       </c>
       <c r="D2">
-        <v>1.028398416367992</v>
+        <v>1.027613629082692</v>
       </c>
       <c r="E2">
-        <v>1.012497148512203</v>
+        <v>1.01225100922406</v>
       </c>
       <c r="F2">
-        <v>1.033769913103861</v>
+        <v>1.033203254683423</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045660595064121</v>
+        <v>1.045353826646376</v>
       </c>
       <c r="J2">
-        <v>1.028951441366117</v>
+        <v>1.028668915371791</v>
       </c>
       <c r="K2">
-        <v>1.039475800593403</v>
+        <v>1.038701213230303</v>
       </c>
       <c r="L2">
-        <v>1.023785081041946</v>
+        <v>1.023542266245742</v>
       </c>
       <c r="M2">
-        <v>1.044778003452087</v>
+        <v>1.044218612588903</v>
       </c>
       <c r="N2">
-        <v>1.013561331609259</v>
+        <v>1.014809221468021</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044011168260937</v>
+        <v>1.04356844990735</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03898308685777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038444156675381</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02233880257232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010155641095421</v>
+        <v>1.00977214469841</v>
       </c>
       <c r="D3">
-        <v>1.030493476927244</v>
+        <v>1.02958315403475</v>
       </c>
       <c r="E3">
-        <v>1.014947121159722</v>
+        <v>1.014619952534664</v>
       </c>
       <c r="F3">
-        <v>1.036094160948439</v>
+        <v>1.03543749471493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046294581004913</v>
+        <v>1.0459257721922</v>
       </c>
       <c r="J3">
-        <v>1.030373230336454</v>
+        <v>1.029999910327873</v>
       </c>
       <c r="K3">
-        <v>1.040750506317616</v>
+        <v>1.039851003970911</v>
       </c>
       <c r="L3">
-        <v>1.02539225728287</v>
+        <v>1.025069124377502</v>
       </c>
       <c r="M3">
-        <v>1.046285135580954</v>
+        <v>1.045636168335925</v>
       </c>
       <c r="N3">
-        <v>1.014041629482596</v>
+        <v>1.015166273231804</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045203955544286</v>
+        <v>1.044690344625166</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039881748559496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039254218452889</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022550202844473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012180556173674</v>
+        <v>1.01173873929886</v>
       </c>
       <c r="D4">
-        <v>1.031832665622132</v>
+        <v>1.030842711343011</v>
       </c>
       <c r="E4">
-        <v>1.016513706261924</v>
+        <v>1.016135346362386</v>
       </c>
       <c r="F4">
-        <v>1.037582336159821</v>
+        <v>1.036868663024864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046691470990263</v>
+        <v>1.046283293068965</v>
       </c>
       <c r="J4">
-        <v>1.03127773207391</v>
+        <v>1.03084685993902</v>
       </c>
       <c r="K4">
-        <v>1.041561498622683</v>
+        <v>1.040582614639916</v>
       </c>
       <c r="L4">
-        <v>1.026416828584723</v>
+        <v>1.026042855594933</v>
       </c>
       <c r="M4">
-        <v>1.047247386006257</v>
+        <v>1.046541582638827</v>
       </c>
       <c r="N4">
-        <v>1.014347156928318</v>
+        <v>1.015393490971296</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04596550691614</v>
+        <v>1.045406914854981</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040456083226872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039772506643839</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022682475944962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013026915808649</v>
+        <v>1.012560856489018</v>
       </c>
       <c r="D5">
-        <v>1.032395367369224</v>
+        <v>1.031372266062203</v>
       </c>
       <c r="E5">
-        <v>1.017170124652601</v>
+        <v>1.016770471375424</v>
       </c>
       <c r="F5">
-        <v>1.038206843977173</v>
+        <v>1.037469461146288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04685697126208</v>
+        <v>1.046432389689114</v>
       </c>
       <c r="J5">
-        <v>1.031656746132376</v>
+        <v>1.031201893044428</v>
       </c>
       <c r="K5">
-        <v>1.041902714718248</v>
+        <v>1.040890755083258</v>
       </c>
       <c r="L5">
-        <v>1.026846127488022</v>
+        <v>1.026450985126123</v>
       </c>
       <c r="M5">
-        <v>1.047651414333069</v>
+        <v>1.046921949148952</v>
       </c>
       <c r="N5">
-        <v>1.014475369838088</v>
+        <v>1.01548889530866</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046285265777334</v>
+        <v>1.04570794735205</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040704514610506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039998261070764</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02273808783811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013171591414433</v>
+        <v>1.012701399601745</v>
       </c>
       <c r="D6">
-        <v>1.032493965341917</v>
+        <v>1.03146526831125</v>
       </c>
       <c r="E6">
-        <v>1.017282769976879</v>
+        <v>1.016879484213711</v>
       </c>
       <c r="F6">
-        <v>1.038314616590302</v>
+        <v>1.037573232106871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046886776052143</v>
+        <v>1.046459409142732</v>
       </c>
       <c r="J6">
-        <v>1.031723096733112</v>
+        <v>1.031264153381398</v>
       </c>
       <c r="K6">
-        <v>1.041964112416892</v>
+        <v>1.040946567560793</v>
       </c>
       <c r="L6">
-        <v>1.026920652631441</v>
+        <v>1.026521898028327</v>
       </c>
       <c r="M6">
-        <v>1.047722171431717</v>
+        <v>1.046988711603175</v>
       </c>
       <c r="N6">
-        <v>1.014498051158917</v>
+        <v>1.015505812934464</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046341264829893</v>
+        <v>1.045760784978202</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04075666385794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040047328571315</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022748670311574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012199953492606</v>
+        <v>1.011763842611215</v>
       </c>
       <c r="D7">
-        <v>1.031851850921141</v>
+        <v>1.030865521123943</v>
       </c>
       <c r="E7">
-        <v>1.016529717792944</v>
+        <v>1.016156436394048</v>
       </c>
       <c r="F7">
-        <v>1.037599094839629</v>
+        <v>1.03688803721012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04669960878568</v>
+        <v>1.04629397198688</v>
       </c>
       <c r="J7">
-        <v>1.031290670701323</v>
+        <v>1.03086535862855</v>
       </c>
       <c r="K7">
-        <v>1.041577591958602</v>
+        <v>1.04060228769751</v>
       </c>
       <c r="L7">
-        <v>1.026429718663888</v>
+        <v>1.026060763648197</v>
       </c>
       <c r="M7">
-        <v>1.047261103597425</v>
+        <v>1.046557883948956</v>
       </c>
       <c r="N7">
-        <v>1.014352177502421</v>
+        <v>1.015424704369454</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045976363388224</v>
+        <v>1.045419816161816</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04048755499431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039808505272618</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022688011845153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008068276978045</v>
+        <v>1.00776456704305</v>
       </c>
       <c r="D8">
-        <v>1.029124357297203</v>
+        <v>1.028309579075833</v>
       </c>
       <c r="E8">
-        <v>1.013338117533645</v>
+        <v>1.013081172604305</v>
       </c>
       <c r="F8">
-        <v>1.034569149231799</v>
+        <v>1.033981030242357</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045885004793542</v>
+        <v>1.045565803411419</v>
       </c>
       <c r="J8">
-        <v>1.029444996624351</v>
+        <v>1.029149908456838</v>
       </c>
       <c r="K8">
-        <v>1.039923758894776</v>
+        <v>1.039119261542164</v>
       </c>
       <c r="L8">
-        <v>1.024340396473241</v>
+        <v>1.024086819202429</v>
       </c>
       <c r="M8">
-        <v>1.045300366374859</v>
+        <v>1.044719569221773</v>
       </c>
       <c r="N8">
-        <v>1.013728905543155</v>
+        <v>1.015017119806365</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044424581372872</v>
+        <v>1.043964921707909</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039322719059706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03876490436873</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022419517017673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000523973754645</v>
+        <v>1.0004459429279</v>
       </c>
       <c r="D9">
-        <v>1.024169897852354</v>
+        <v>1.023656954690068</v>
       </c>
       <c r="E9">
-        <v>1.007554437560712</v>
+        <v>1.007494948506524</v>
       </c>
       <c r="F9">
-        <v>1.029091971947758</v>
+        <v>1.028720858401838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044336329548837</v>
+        <v>1.044166594214051</v>
       </c>
       <c r="J9">
-        <v>1.02605824271636</v>
+        <v>1.025982963622711</v>
       </c>
       <c r="K9">
-        <v>1.036882639430165</v>
+        <v>1.036377529961565</v>
       </c>
       <c r="L9">
-        <v>1.020526126891596</v>
+        <v>1.02046758462019</v>
       </c>
       <c r="M9">
-        <v>1.041730048948558</v>
+        <v>1.04136453322893</v>
       </c>
       <c r="N9">
-        <v>1.01258399761211</v>
+        <v>1.014176505558662</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04159892430972</v>
+        <v>1.041309643507068</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037169280397191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036822869575181</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021901550287172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9953550098929556</v>
+        <v>0.9954596784082665</v>
       </c>
       <c r="D10">
-        <v>1.020834165318386</v>
+        <v>1.020544965723579</v>
       </c>
       <c r="E10">
-        <v>1.003629739122034</v>
+        <v>1.003729893581369</v>
       </c>
       <c r="F10">
-        <v>1.025489020500726</v>
+        <v>1.025279481812476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043261949537684</v>
+        <v>1.043206080813403</v>
       </c>
       <c r="J10">
-        <v>1.023754140050174</v>
+        <v>1.023854601265336</v>
       </c>
       <c r="K10">
-        <v>1.034837172655012</v>
+        <v>1.03455292468902</v>
       </c>
       <c r="L10">
-        <v>1.017933765316582</v>
+        <v>1.018032128635033</v>
       </c>
       <c r="M10">
-        <v>1.039412823989364</v>
+        <v>1.039206830720238</v>
       </c>
       <c r="N10">
-        <v>1.011808241756303</v>
+        <v>1.013723999125321</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039816351585145</v>
+        <v>1.039653331683148</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035739815555807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03555124160295</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021553925040531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9933957224030219</v>
+        <v>0.9935878184401319</v>
       </c>
       <c r="D11">
-        <v>1.019827140173344</v>
+        <v>1.019620371109137</v>
       </c>
       <c r="E11">
-        <v>1.002193441329114</v>
+        <v>1.002369481745264</v>
       </c>
       <c r="F11">
-        <v>1.02498648374691</v>
+        <v>1.02483680134794</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043011903879767</v>
+        <v>1.043000893009378</v>
       </c>
       <c r="J11">
-        <v>1.023045851577904</v>
+        <v>1.023229806232131</v>
       </c>
       <c r="K11">
-        <v>1.034384587827693</v>
+        <v>1.034181524648453</v>
       </c>
       <c r="L11">
-        <v>1.017074110769657</v>
+        <v>1.017246851025772</v>
       </c>
       <c r="M11">
-        <v>1.039452089291388</v>
+        <v>1.039305054513451</v>
       </c>
       <c r="N11">
-        <v>1.011595725074782</v>
+        <v>1.013802447590733</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040282726579655</v>
+        <v>1.040166423850246</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035452646075756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035324682824811</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021531166305317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9927707191043986</v>
+        <v>0.9929852126610414</v>
       </c>
       <c r="D12">
-        <v>1.019602964711756</v>
+        <v>1.01941236274461</v>
       </c>
       <c r="E12">
-        <v>1.001754483936683</v>
+        <v>1.00194932001729</v>
       </c>
       <c r="F12">
-        <v>1.025176252506396</v>
+        <v>1.02503838998277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042994841968405</v>
+        <v>1.042992507041115</v>
       </c>
       <c r="J12">
-        <v>1.022884217963624</v>
+        <v>1.02308944680581</v>
       </c>
       <c r="K12">
-        <v>1.034363998790879</v>
+        <v>1.03417686886775</v>
       </c>
       <c r="L12">
-        <v>1.016848147820015</v>
+        <v>1.017039269179888</v>
       </c>
       <c r="M12">
-        <v>1.039836504056884</v>
+        <v>1.039701117344219</v>
       </c>
       <c r="N12">
-        <v>1.011562028983498</v>
+        <v>1.01388043354947</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04091246237133</v>
+        <v>1.040805409214853</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035438088980078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035321391109344</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021564108811668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9931401331516649</v>
+        <v>0.9933193490978219</v>
       </c>
       <c r="D13">
-        <v>1.019981225629786</v>
+        <v>1.019750595185854</v>
       </c>
       <c r="E13">
-        <v>1.002059989182032</v>
+        <v>1.002222981643661</v>
       </c>
       <c r="F13">
-        <v>1.025936465838889</v>
+        <v>1.025769800871467</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043167320419252</v>
+        <v>1.043142332076198</v>
       </c>
       <c r="J13">
-        <v>1.023143984755607</v>
+        <v>1.023315495913703</v>
       </c>
       <c r="K13">
-        <v>1.034692590550634</v>
+        <v>1.034466143452065</v>
       </c>
       <c r="L13">
-        <v>1.0171039275265</v>
+        <v>1.017263825173509</v>
       </c>
       <c r="M13">
-        <v>1.040540655909716</v>
+        <v>1.040376968387623</v>
       </c>
       <c r="N13">
-        <v>1.011668457027339</v>
+        <v>1.013931375708697</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041745300880999</v>
+        <v>1.041615902063943</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035667923116785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035523180335646</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021646825945696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9938494475982402</v>
+        <v>0.9939784992352005</v>
       </c>
       <c r="D14">
-        <v>1.02051859677339</v>
+        <v>1.020235158049537</v>
       </c>
       <c r="E14">
-        <v>1.002611293527651</v>
+        <v>1.002729720318107</v>
       </c>
       <c r="F14">
-        <v>1.026724830654192</v>
+        <v>1.026520135836624</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043373463873455</v>
+        <v>1.043318907489568</v>
       </c>
       <c r="J14">
-        <v>1.023516377576716</v>
+        <v>1.023639958565797</v>
       </c>
       <c r="K14">
-        <v>1.035080141364291</v>
+        <v>1.03480178083766</v>
       </c>
       <c r="L14">
-        <v>1.017501036581405</v>
+        <v>1.017617242611053</v>
       </c>
       <c r="M14">
-        <v>1.041176093204301</v>
+        <v>1.040975008150268</v>
       </c>
       <c r="N14">
-        <v>1.011806428311846</v>
+        <v>1.013955979555655</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042420576471293</v>
+        <v>1.0422616354188</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035943357153709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035762043561648</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021727332409543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9942427220426581</v>
+        <v>0.9943472816808947</v>
       </c>
       <c r="D15">
-        <v>1.020789650780124</v>
+        <v>1.02048107552804</v>
       </c>
       <c r="E15">
-        <v>1.00291177544375</v>
+        <v>1.003008618365854</v>
       </c>
       <c r="F15">
-        <v>1.027060897625636</v>
+        <v>1.026838094141074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043469387134925</v>
+        <v>1.043400901504724</v>
       </c>
       <c r="J15">
-        <v>1.023704435730353</v>
+        <v>1.023804600936273</v>
       </c>
       <c r="K15">
-        <v>1.035260061882056</v>
+        <v>1.034956973846538</v>
       </c>
       <c r="L15">
-        <v>1.017707364556515</v>
+        <v>1.017802405278817</v>
       </c>
       <c r="M15">
-        <v>1.041420716218376</v>
+        <v>1.04120181185809</v>
       </c>
       <c r="N15">
-        <v>1.011872661090174</v>
+        <v>1.013960519250253</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042651391846189</v>
+        <v>1.042478370656396</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036076432131595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035878203780424</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021760631387686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9963532416672681</v>
+        <v>0.9963460381898863</v>
       </c>
       <c r="D16">
-        <v>1.022131584717851</v>
+        <v>1.021708152915504</v>
       </c>
       <c r="E16">
-        <v>1.004503636477703</v>
+        <v>1.004502798588353</v>
       </c>
       <c r="F16">
-        <v>1.028478723997422</v>
+        <v>1.028173145974402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043904000961317</v>
+        <v>1.043773258504002</v>
       </c>
       <c r="J16">
-        <v>1.024635046273078</v>
+        <v>1.024628130648461</v>
       </c>
       <c r="K16">
-        <v>1.036076883082886</v>
+        <v>1.035660657564864</v>
       </c>
       <c r="L16">
-        <v>1.018755609516249</v>
+        <v>1.018754786535745</v>
       </c>
       <c r="M16">
-        <v>1.042316918448398</v>
+        <v>1.042016457804276</v>
       </c>
       <c r="N16">
-        <v>1.012182618648858</v>
+        <v>1.013972728018939</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043321104801255</v>
+        <v>1.043083615125798</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036657118746558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036379197735224</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021890743052727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9976044091508829</v>
+        <v>0.9975446024642411</v>
       </c>
       <c r="D17">
-        <v>1.022882398444244</v>
+        <v>1.022403037804094</v>
       </c>
       <c r="E17">
-        <v>1.005440384105436</v>
+        <v>1.005393896983429</v>
       </c>
       <c r="F17">
-        <v>1.029149321831737</v>
+        <v>1.028803397632839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044128214344728</v>
+        <v>1.04396812409095</v>
       </c>
       <c r="J17">
-        <v>1.025154958675192</v>
+        <v>1.025097466085871</v>
       </c>
       <c r="K17">
-        <v>1.036500768986903</v>
+        <v>1.036029341007379</v>
       </c>
       <c r="L17">
-        <v>1.019353691389708</v>
+        <v>1.019308008032493</v>
       </c>
       <c r="M17">
-        <v>1.042664858122382</v>
+        <v>1.042324568235992</v>
       </c>
       <c r="N17">
-        <v>1.012348386885611</v>
+        <v>1.013998035011351</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0434673370524</v>
+        <v>1.043198338936361</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03695940913518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036642705677768</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021949015164468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9982233096105678</v>
+        <v>0.99814937053863</v>
       </c>
       <c r="D18">
-        <v>1.023166935857428</v>
+        <v>1.022672987058735</v>
       </c>
       <c r="E18">
-        <v>1.005888439896613</v>
+        <v>1.005830179445562</v>
       </c>
       <c r="F18">
-        <v>1.029175155606979</v>
+        <v>1.028818543488526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044180231567128</v>
+        <v>1.044013331214691</v>
       </c>
       <c r="J18">
-        <v>1.025353606610567</v>
+        <v>1.02528247519777</v>
       </c>
       <c r="K18">
-        <v>1.036597410988818</v>
+        <v>1.036111504537673</v>
       </c>
       <c r="L18">
-        <v>1.019606299448693</v>
+        <v>1.019549029578316</v>
       </c>
       <c r="M18">
-        <v>1.042508599069485</v>
+        <v>1.042157705595579</v>
       </c>
       <c r="N18">
-        <v>1.012399176449075</v>
+        <v>1.013995385694637</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043106610097628</v>
+        <v>1.042829172303935</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037016113182947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036688039703274</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021941469949907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9982730104196029</v>
+        <v>0.9982149085429172</v>
       </c>
       <c r="D19">
-        <v>1.023034764589597</v>
+        <v>1.022560831282358</v>
       </c>
       <c r="E19">
-        <v>1.005896910732648</v>
+        <v>1.005853222232756</v>
       </c>
       <c r="F19">
-        <v>1.028609734370923</v>
+        <v>1.02826724721422</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044081662341341</v>
+        <v>1.04392625657162</v>
       </c>
       <c r="J19">
-        <v>1.025266410660826</v>
+        <v>1.025210501797594</v>
       </c>
       <c r="K19">
-        <v>1.03640491353407</v>
+        <v>1.035938657885222</v>
       </c>
       <c r="L19">
-        <v>1.01955062477537</v>
+        <v>1.019507675083244</v>
       </c>
       <c r="M19">
-        <v>1.041890250347679</v>
+        <v>1.041553233692015</v>
       </c>
       <c r="N19">
-        <v>1.012350122684039</v>
+        <v>1.013950807587678</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042292871879345</v>
+        <v>1.04202631922724</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03688640138041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036572846661004</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021876868403976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9967135914643036</v>
+        <v>0.9967524437987645</v>
       </c>
       <c r="D20">
-        <v>1.021726088734584</v>
+        <v>1.021366269820234</v>
       </c>
       <c r="E20">
-        <v>1.004661948960534</v>
+        <v>1.004704283921438</v>
       </c>
       <c r="F20">
-        <v>1.026444695882592</v>
+        <v>1.026184090905496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043558454643975</v>
+        <v>1.043464457171059</v>
       </c>
       <c r="J20">
-        <v>1.024371789117316</v>
+        <v>1.02440912985001</v>
       </c>
       <c r="K20">
-        <v>1.035397374050063</v>
+        <v>1.03504354301736</v>
       </c>
       <c r="L20">
-        <v>1.01862331597368</v>
+        <v>1.018664915480728</v>
       </c>
       <c r="M20">
-        <v>1.040037956770045</v>
+        <v>1.03978163694192</v>
       </c>
       <c r="N20">
-        <v>1.012018225632755</v>
+        <v>1.013775977429882</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040300545302477</v>
+        <v>1.040097695279657</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036177950977313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03594427597114</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021650566236288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.992780759728782</v>
+        <v>0.9930489800593333</v>
       </c>
       <c r="D21">
-        <v>1.019146306814718</v>
+        <v>1.019021010078476</v>
       </c>
       <c r="E21">
-        <v>1.001678970434549</v>
+        <v>1.001923353544893</v>
       </c>
       <c r="F21">
-        <v>1.023550896026439</v>
+        <v>1.0234600210441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042695833932194</v>
+        <v>1.042731496188221</v>
       </c>
       <c r="J21">
-        <v>1.022583446333589</v>
+        <v>1.022840223002872</v>
       </c>
       <c r="K21">
-        <v>1.033773804128002</v>
+        <v>1.033650767020595</v>
       </c>
       <c r="L21">
-        <v>1.01662860386959</v>
+        <v>1.016868378793401</v>
       </c>
       <c r="M21">
-        <v>1.038099416388323</v>
+        <v>1.038010161933336</v>
       </c>
       <c r="N21">
-        <v>1.011411254381882</v>
+        <v>1.013768195152236</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038725520712797</v>
+        <v>1.038654881618064</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035033248153253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034963080762161</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021379019742416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902772147613337</v>
+        <v>0.9906893516484844</v>
       </c>
       <c r="D22">
-        <v>1.017519483335451</v>
+        <v>1.017541295444723</v>
       </c>
       <c r="E22">
-        <v>0.9997889023160663</v>
+        <v>1.000160054830486</v>
       </c>
       <c r="F22">
-        <v>1.02176978210627</v>
+        <v>1.021785614635236</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042145718330182</v>
+        <v>1.042262723956166</v>
       </c>
       <c r="J22">
-        <v>1.021450162779354</v>
+        <v>1.021843708501192</v>
       </c>
       <c r="K22">
-        <v>1.032751685915861</v>
+        <v>1.03277308516375</v>
       </c>
       <c r="L22">
-        <v>1.01536454225303</v>
+        <v>1.015728341670124</v>
       </c>
       <c r="M22">
-        <v>1.036921969321507</v>
+        <v>1.036937505414724</v>
       </c>
       <c r="N22">
-        <v>1.011027283040651</v>
+        <v>1.013756363781526</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037793647396431</v>
+        <v>1.037805943218836</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034297062319358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034327718282638</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021207212570986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9916008376238312</v>
+        <v>0.9919267867528025</v>
       </c>
       <c r="D23">
-        <v>1.018373403330811</v>
+        <v>1.018310359176748</v>
       </c>
       <c r="E23">
-        <v>1.000786379452751</v>
+        <v>1.001081471829671</v>
       </c>
       <c r="F23">
-        <v>1.022708325005677</v>
+        <v>1.022662583314549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042433408162236</v>
+        <v>1.042502640496592</v>
       </c>
       <c r="J23">
-        <v>1.022045538523791</v>
+        <v>1.02235720874025</v>
       </c>
       <c r="K23">
-        <v>1.033284866950229</v>
+        <v>1.033222986154394</v>
       </c>
       <c r="L23">
-        <v>1.016029823384959</v>
+        <v>1.016319219418476</v>
       </c>
       <c r="M23">
-        <v>1.037540243767714</v>
+        <v>1.037495336844199</v>
       </c>
       <c r="N23">
-        <v>1.011228300204748</v>
+        <v>1.013718848850624</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038282971845204</v>
+        <v>1.038247430915521</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03466441197234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034635243777013</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021293381794514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967353178870771</v>
+        <v>0.996775426611247</v>
       </c>
       <c r="D24">
-        <v>1.021707145820036</v>
+        <v>1.021349000243993</v>
       </c>
       <c r="E24">
-        <v>1.004672686694618</v>
+        <v>1.004716220410476</v>
       </c>
       <c r="F24">
-        <v>1.026372068154389</v>
+        <v>1.026112640432097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043541325165573</v>
+        <v>1.043448381347855</v>
       </c>
       <c r="J24">
-        <v>1.024359620843421</v>
+        <v>1.024398171376814</v>
       </c>
       <c r="K24">
-        <v>1.035363489666996</v>
+        <v>1.035011296760836</v>
       </c>
       <c r="L24">
-        <v>1.018618238628785</v>
+        <v>1.018661017061612</v>
       </c>
       <c r="M24">
-        <v>1.039951365193823</v>
+        <v>1.039696198573622</v>
       </c>
       <c r="N24">
-        <v>1.012010780027918</v>
+        <v>1.013766666102419</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040191216145558</v>
+        <v>1.039989268759205</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036126599264494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035891412871811</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02163800251282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002518327610023</v>
+        <v>1.002372371873223</v>
       </c>
       <c r="D25">
-        <v>1.025484978277452</v>
+        <v>1.024886929740588</v>
       </c>
       <c r="E25">
-        <v>1.009079528859005</v>
+        <v>1.008960551701838</v>
       </c>
       <c r="F25">
-        <v>1.030536535214513</v>
+        <v>1.030104115425841</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044758629192167</v>
+        <v>1.044545714947668</v>
       </c>
       <c r="J25">
-        <v>1.026961236197701</v>
+        <v>1.026820159165228</v>
       </c>
       <c r="K25">
-        <v>1.03770014712888</v>
+        <v>1.03711081278265</v>
       </c>
       <c r="L25">
-        <v>1.02153851314262</v>
+        <v>1.021421341107954</v>
       </c>
       <c r="M25">
-        <v>1.042678608735127</v>
+        <v>1.042252410459728</v>
       </c>
       <c r="N25">
-        <v>1.012890387009881</v>
+        <v>1.014369337187754</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042349644250422</v>
+        <v>1.042012337675437</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037775875274095</v>
+        <v>1.037372713517489</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022043677955251</v>
       </c>
     </row>
   </sheetData>
